--- a/template/Name_Personal_ITC_YA2025_R.xlsx
+++ b/template/Name_Personal_ITC_YA2025_R.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ylum009\Desktop\Automation 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ylum009\Desktop\automation-master\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7A0135-28B7-4AAE-8A47-3AE0BB6DCB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF14FC7-5FB9-48A5-8D3C-AD62824E6153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="732" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tax Summary" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
   <si>
     <t>PricewaterhouseCoopers Taxation Services Sdn Bhd</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>Bonuses / Director fees</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Gross tips, perquisites or other allowances</t>
@@ -173,12 +170,6 @@
     <t>Claimed Amount</t>
   </si>
   <si>
-    <t>need to key in manually</t>
-  </si>
-  <si>
-    <t>Self relief</t>
-  </si>
-  <si>
     <t>Tax Category</t>
   </si>
   <si>
@@ -196,6 +187,99 @@
   <si>
     <t>Tax allowance (YA 2024)</t>
   </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>cell H12</t>
+  </si>
+  <si>
+    <t>Spouse</t>
+  </si>
+  <si>
+    <t>Children 18 years and below</t>
+  </si>
+  <si>
+    <t>Children 18 years and above</t>
+  </si>
+  <si>
+    <t>cell H47 or H49</t>
+  </si>
+  <si>
+    <t>cell H53</t>
+  </si>
+  <si>
+    <t>cell H55</t>
+  </si>
+  <si>
+    <t>Life insurance and voluntary EPF</t>
+  </si>
+  <si>
+    <t>EPF and voluntary EPF</t>
+  </si>
+  <si>
+    <t>cell H62</t>
+  </si>
+  <si>
+    <t>cell H63</t>
+  </si>
+  <si>
+    <t>Education / medical insurance</t>
+  </si>
+  <si>
+    <t>Socso</t>
+  </si>
+  <si>
+    <t>Lifestyle</t>
+  </si>
+  <si>
+    <t>cell H68</t>
+  </si>
+  <si>
+    <t>cell H70</t>
+  </si>
+  <si>
+    <t>max can claim</t>
+  </si>
+  <si>
+    <t>*** need to manual add row if the relief is not listed above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum of cell H73:H76 </t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>cell C17</t>
+  </si>
+  <si>
+    <t>cell C18</t>
+  </si>
+  <si>
+    <t>cell C19</t>
+  </si>
+  <si>
+    <t>cell C20</t>
+  </si>
+  <si>
+    <t>cell C21</t>
+  </si>
+  <si>
+    <t>cell C22</t>
+  </si>
+  <si>
+    <t>cell C23</t>
+  </si>
+  <si>
+    <t>cell C24</t>
+  </si>
+  <si>
+    <t>cell C25</t>
+  </si>
 </sst>
 </file>
 
@@ -212,7 +296,7 @@
     <numFmt numFmtId="170" formatCode="0.0%"/>
     <numFmt numFmtId="171" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,14 +348,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Georgia"/>
@@ -311,13 +387,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -337,8 +406,40 @@
       <name val="Georgia"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -353,12 +454,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -369,8 +464,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -528,6 +635,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -536,7 +654,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -636,50 +754,34 @@
     <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -690,34 +792,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="10" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -730,7 +832,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="39" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -830,31 +959,11 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="1"/>
+            <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-9DAE-4029-9F66-9B7E1396E30D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -874,7 +983,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -886,26 +995,6 @@
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-9DAE-4029-9F66-9B7E1396E30D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-9DAE-4029-9F66-9B7E1396E30D}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -956,9 +1045,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -978,9 +1065,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1082,21 +1167,39 @@
             <c:strRef>
               <c:f>Data!$B$3:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Gross salary, wages or leave pay</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Bonuses / Director fees</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Gross tips, perquisites or other allowances</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Tax allowance (YA 2024)</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>Equity income</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Gratuity</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Payment in arrears</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Benefits-in-kind</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>Value of living accommodation</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Refund from unapproved Pension or Provident Fund</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Compensation for loss of employment </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1106,7 +1209,7 @@
               <c:f>Data!$C$3:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1120,6 +1223,24 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1275,24 +1396,45 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$B$17:$B$17</c:f>
+              <c:f>Data!$B$17:$B$25</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>Self relief</c:v>
+                  <c:v>Self</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spouse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Children 18 years and below</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Children 18 years and above</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Life insurance and voluntary EPF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EPF and voluntary EPF</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Education / medical insurance</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Socso</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lifestyle</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$17:$C$17</c:f>
+              <c:f>Data!$C$17:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>9000</c:v>
-                </c:pt>
+                <c:ptCount val="9"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1503,7 +1645,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$C$20</c:f>
+              <c:f>Data!$C$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1524,7 +1666,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$B$21:$B$22</c:f>
+              <c:f>Data!$B$31:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1533,7 +1675,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$21:$C$22</c:f>
+              <c:f>Data!$C$31:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1554,7 +1696,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$D$20</c:f>
+              <c:f>Data!$D$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1575,7 +1717,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$B$21:$B$22</c:f>
+              <c:f>Data!$B$31:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1584,7 +1726,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$21:$D$22</c:f>
+              <c:f>Data!$D$31:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1605,7 +1747,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$E$20</c:f>
+              <c:f>Data!$E$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1626,7 +1768,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$B$21:$B$22</c:f>
+              <c:f>Data!$B$31:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1635,7 +1777,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$21:$E$22</c:f>
+              <c:f>Data!$E$31:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2262,1644 +2404,1644 @@
   </sheetPr>
   <dimension ref="B2:AW77"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G7"/>
+    <sheetView topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" style="44" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="44" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="44"/>
+    <col min="1" max="1" width="2.5546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="35" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="35"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:49" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="2:49" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="2:49" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="55">
+      <c r="G4" s="44">
         <f>'Tax Comp'!C4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:49" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="56">
+      <c r="G5" s="45">
         <f>'Tax Comp'!C5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:49" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53" t="s">
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="44">
         <v>2025</v>
       </c>
     </row>
     <row r="7" spans="2:49" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53" t="s">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="55" t="s">
-        <v>49</v>
+      <c r="G7" s="44" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="2:49" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="AQ9" s="58" t="s">
+      <c r="AQ9" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="AR9" s="59"/>
-      <c r="AS9" s="59"/>
-      <c r="AT9" s="59"/>
-      <c r="AU9" s="59"/>
-      <c r="AV9" s="59"/>
-      <c r="AW9" s="60"/>
+      <c r="AR9" s="47"/>
+      <c r="AS9" s="47"/>
+      <c r="AT9" s="47"/>
+      <c r="AU9" s="47"/>
+      <c r="AV9" s="47"/>
+      <c r="AW9" s="48"/>
     </row>
     <row r="10" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="AQ10" s="61"/>
-      <c r="AR10" s="62"/>
-      <c r="AS10" s="62"/>
-      <c r="AT10" s="62"/>
-      <c r="AU10" s="62"/>
-      <c r="AV10" s="62"/>
-      <c r="AW10" s="63"/>
+      <c r="AQ10" s="49"/>
+      <c r="AR10" s="50"/>
+      <c r="AS10" s="50"/>
+      <c r="AT10" s="50"/>
+      <c r="AU10" s="50"/>
+      <c r="AV10" s="50"/>
+      <c r="AW10" s="51"/>
     </row>
     <row r="11" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="AQ11" s="61"/>
-      <c r="AR11" s="62"/>
-      <c r="AS11" s="62"/>
-      <c r="AT11" s="62"/>
-      <c r="AU11" s="62"/>
-      <c r="AV11" s="62"/>
-      <c r="AW11" s="63"/>
+      <c r="AQ11" s="49"/>
+      <c r="AR11" s="50"/>
+      <c r="AS11" s="50"/>
+      <c r="AT11" s="50"/>
+      <c r="AU11" s="50"/>
+      <c r="AV11" s="50"/>
+      <c r="AW11" s="51"/>
     </row>
     <row r="12" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="AQ12" s="61"/>
-      <c r="AR12" s="62"/>
-      <c r="AS12" s="62"/>
-      <c r="AT12" s="62"/>
-      <c r="AU12" s="62"/>
-      <c r="AV12" s="62"/>
-      <c r="AW12" s="63"/>
+      <c r="AQ12" s="49"/>
+      <c r="AR12" s="50"/>
+      <c r="AS12" s="50"/>
+      <c r="AT12" s="50"/>
+      <c r="AU12" s="50"/>
+      <c r="AV12" s="50"/>
+      <c r="AW12" s="51"/>
     </row>
     <row r="13" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="AQ13" s="61"/>
-      <c r="AR13" s="62"/>
-      <c r="AS13" s="62"/>
-      <c r="AT13" s="62"/>
-      <c r="AU13" s="62"/>
-      <c r="AV13" s="62"/>
-      <c r="AW13" s="63"/>
+      <c r="AQ13" s="49"/>
+      <c r="AR13" s="50"/>
+      <c r="AS13" s="50"/>
+      <c r="AT13" s="50"/>
+      <c r="AU13" s="50"/>
+      <c r="AV13" s="50"/>
+      <c r="AW13" s="51"/>
     </row>
     <row r="14" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="AQ14" s="61"/>
-      <c r="AR14" s="62"/>
-      <c r="AS14" s="62"/>
-      <c r="AT14" s="62"/>
-      <c r="AU14" s="62"/>
-      <c r="AV14" s="62"/>
-      <c r="AW14" s="63"/>
+      <c r="AQ14" s="49"/>
+      <c r="AR14" s="50"/>
+      <c r="AS14" s="50"/>
+      <c r="AT14" s="50"/>
+      <c r="AU14" s="50"/>
+      <c r="AV14" s="50"/>
+      <c r="AW14" s="51"/>
     </row>
     <row r="15" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="AQ15" s="61"/>
-      <c r="AR15" s="62"/>
-      <c r="AS15" s="62"/>
-      <c r="AT15" s="62"/>
-      <c r="AU15" s="62"/>
-      <c r="AV15" s="62"/>
-      <c r="AW15" s="63"/>
+      <c r="AQ15" s="49"/>
+      <c r="AR15" s="50"/>
+      <c r="AS15" s="50"/>
+      <c r="AT15" s="50"/>
+      <c r="AU15" s="50"/>
+      <c r="AV15" s="50"/>
+      <c r="AW15" s="51"/>
     </row>
     <row r="16" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="AQ16" s="61"/>
-      <c r="AR16" s="62"/>
-      <c r="AS16" s="62"/>
-      <c r="AT16" s="62"/>
-      <c r="AU16" s="62"/>
-      <c r="AV16" s="62"/>
-      <c r="AW16" s="63"/>
+      <c r="AQ16" s="49"/>
+      <c r="AR16" s="50"/>
+      <c r="AS16" s="50"/>
+      <c r="AT16" s="50"/>
+      <c r="AU16" s="50"/>
+      <c r="AV16" s="50"/>
+      <c r="AW16" s="51"/>
     </row>
     <row r="17" spans="43:49" x14ac:dyDescent="0.25">
-      <c r="AQ17" s="61"/>
-      <c r="AR17" s="62"/>
-      <c r="AS17" s="62"/>
-      <c r="AT17" s="62"/>
-      <c r="AU17" s="62"/>
-      <c r="AV17" s="62"/>
-      <c r="AW17" s="63"/>
+      <c r="AQ17" s="49"/>
+      <c r="AR17" s="50"/>
+      <c r="AS17" s="50"/>
+      <c r="AT17" s="50"/>
+      <c r="AU17" s="50"/>
+      <c r="AV17" s="50"/>
+      <c r="AW17" s="51"/>
     </row>
     <row r="18" spans="43:49" x14ac:dyDescent="0.25">
-      <c r="AQ18" s="61"/>
-      <c r="AR18" s="62"/>
-      <c r="AS18" s="62"/>
-      <c r="AT18" s="62"/>
-      <c r="AU18" s="62"/>
-      <c r="AV18" s="62"/>
-      <c r="AW18" s="63"/>
+      <c r="AQ18" s="49"/>
+      <c r="AR18" s="50"/>
+      <c r="AS18" s="50"/>
+      <c r="AT18" s="50"/>
+      <c r="AU18" s="50"/>
+      <c r="AV18" s="50"/>
+      <c r="AW18" s="51"/>
     </row>
     <row r="19" spans="43:49" x14ac:dyDescent="0.25">
-      <c r="AQ19" s="61"/>
-      <c r="AR19" s="62"/>
-      <c r="AS19" s="62"/>
-      <c r="AT19" s="62"/>
-      <c r="AU19" s="62"/>
-      <c r="AV19" s="62"/>
-      <c r="AW19" s="63"/>
+      <c r="AQ19" s="49"/>
+      <c r="AR19" s="50"/>
+      <c r="AS19" s="50"/>
+      <c r="AT19" s="50"/>
+      <c r="AU19" s="50"/>
+      <c r="AV19" s="50"/>
+      <c r="AW19" s="51"/>
     </row>
     <row r="20" spans="43:49" x14ac:dyDescent="0.25">
-      <c r="AQ20" s="61"/>
-      <c r="AR20" s="62"/>
-      <c r="AS20" s="62"/>
-      <c r="AT20" s="62"/>
-      <c r="AU20" s="62"/>
-      <c r="AV20" s="62"/>
-      <c r="AW20" s="63"/>
+      <c r="AQ20" s="49"/>
+      <c r="AR20" s="50"/>
+      <c r="AS20" s="50"/>
+      <c r="AT20" s="50"/>
+      <c r="AU20" s="50"/>
+      <c r="AV20" s="50"/>
+      <c r="AW20" s="51"/>
     </row>
     <row r="21" spans="43:49" x14ac:dyDescent="0.25">
-      <c r="AQ21" s="61"/>
-      <c r="AR21" s="62"/>
-      <c r="AS21" s="62"/>
-      <c r="AT21" s="62"/>
-      <c r="AU21" s="62"/>
-      <c r="AV21" s="62"/>
-      <c r="AW21" s="63"/>
+      <c r="AQ21" s="49"/>
+      <c r="AR21" s="50"/>
+      <c r="AS21" s="50"/>
+      <c r="AT21" s="50"/>
+      <c r="AU21" s="50"/>
+      <c r="AV21" s="50"/>
+      <c r="AW21" s="51"/>
     </row>
     <row r="22" spans="43:49" x14ac:dyDescent="0.25">
-      <c r="AQ22" s="61"/>
-      <c r="AR22" s="62"/>
-      <c r="AS22" s="62"/>
-      <c r="AT22" s="62"/>
-      <c r="AU22" s="62"/>
-      <c r="AV22" s="62"/>
-      <c r="AW22" s="63"/>
+      <c r="AQ22" s="49"/>
+      <c r="AR22" s="50"/>
+      <c r="AS22" s="50"/>
+      <c r="AT22" s="50"/>
+      <c r="AU22" s="50"/>
+      <c r="AV22" s="50"/>
+      <c r="AW22" s="51"/>
     </row>
     <row r="23" spans="43:49" x14ac:dyDescent="0.25">
-      <c r="AQ23" s="61"/>
-      <c r="AR23" s="62"/>
-      <c r="AS23" s="62"/>
-      <c r="AT23" s="62"/>
-      <c r="AU23" s="62"/>
-      <c r="AV23" s="62"/>
-      <c r="AW23" s="63"/>
+      <c r="AQ23" s="49"/>
+      <c r="AR23" s="50"/>
+      <c r="AS23" s="50"/>
+      <c r="AT23" s="50"/>
+      <c r="AU23" s="50"/>
+      <c r="AV23" s="50"/>
+      <c r="AW23" s="51"/>
     </row>
     <row r="24" spans="43:49" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AQ24" s="64"/>
-      <c r="AR24" s="65"/>
-      <c r="AS24" s="65"/>
-      <c r="AT24" s="65"/>
-      <c r="AU24" s="65"/>
-      <c r="AV24" s="65"/>
-      <c r="AW24" s="66"/>
+      <c r="AQ24" s="52"/>
+      <c r="AR24" s="53"/>
+      <c r="AS24" s="53"/>
+      <c r="AT24" s="53"/>
+      <c r="AU24" s="53"/>
+      <c r="AV24" s="53"/>
+      <c r="AW24" s="54"/>
     </row>
     <row r="25" spans="43:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AQ25" s="74">
+      <c r="AQ25" s="62">
         <f>'Tax Comp'!E29</f>
         <v>0</v>
       </c>
-      <c r="AR25" s="59"/>
-      <c r="AS25" s="59"/>
-      <c r="AT25" s="59"/>
-      <c r="AU25" s="59"/>
-      <c r="AV25" s="59"/>
-      <c r="AW25" s="60"/>
+      <c r="AR25" s="47"/>
+      <c r="AS25" s="47"/>
+      <c r="AT25" s="47"/>
+      <c r="AU25" s="47"/>
+      <c r="AV25" s="47"/>
+      <c r="AW25" s="48"/>
     </row>
     <row r="26" spans="43:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AQ26" s="61"/>
-      <c r="AR26" s="62"/>
-      <c r="AS26" s="62"/>
-      <c r="AT26" s="62"/>
-      <c r="AU26" s="62"/>
-      <c r="AV26" s="62"/>
-      <c r="AW26" s="63"/>
+      <c r="AQ26" s="49"/>
+      <c r="AR26" s="50"/>
+      <c r="AS26" s="50"/>
+      <c r="AT26" s="50"/>
+      <c r="AU26" s="50"/>
+      <c r="AV26" s="50"/>
+      <c r="AW26" s="51"/>
     </row>
     <row r="27" spans="43:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AQ27" s="61"/>
-      <c r="AR27" s="62"/>
-      <c r="AS27" s="62"/>
-      <c r="AT27" s="62"/>
-      <c r="AU27" s="62"/>
-      <c r="AV27" s="62"/>
-      <c r="AW27" s="63"/>
+      <c r="AQ27" s="49"/>
+      <c r="AR27" s="50"/>
+      <c r="AS27" s="50"/>
+      <c r="AT27" s="50"/>
+      <c r="AU27" s="50"/>
+      <c r="AV27" s="50"/>
+      <c r="AW27" s="51"/>
     </row>
     <row r="28" spans="43:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AQ28" s="61"/>
-      <c r="AR28" s="62"/>
-      <c r="AS28" s="62"/>
-      <c r="AT28" s="62"/>
-      <c r="AU28" s="62"/>
-      <c r="AV28" s="62"/>
-      <c r="AW28" s="63"/>
+      <c r="AQ28" s="49"/>
+      <c r="AR28" s="50"/>
+      <c r="AS28" s="50"/>
+      <c r="AT28" s="50"/>
+      <c r="AU28" s="50"/>
+      <c r="AV28" s="50"/>
+      <c r="AW28" s="51"/>
     </row>
     <row r="29" spans="43:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AQ29" s="61"/>
-      <c r="AR29" s="62"/>
-      <c r="AS29" s="62"/>
-      <c r="AT29" s="62"/>
-      <c r="AU29" s="62"/>
-      <c r="AV29" s="62"/>
-      <c r="AW29" s="63"/>
+      <c r="AQ29" s="49"/>
+      <c r="AR29" s="50"/>
+      <c r="AS29" s="50"/>
+      <c r="AT29" s="50"/>
+      <c r="AU29" s="50"/>
+      <c r="AV29" s="50"/>
+      <c r="AW29" s="51"/>
     </row>
     <row r="30" spans="43:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AQ30" s="61"/>
-      <c r="AR30" s="62"/>
-      <c r="AS30" s="62"/>
-      <c r="AT30" s="62"/>
-      <c r="AU30" s="62"/>
-      <c r="AV30" s="62"/>
-      <c r="AW30" s="63"/>
+      <c r="AQ30" s="49"/>
+      <c r="AR30" s="50"/>
+      <c r="AS30" s="50"/>
+      <c r="AT30" s="50"/>
+      <c r="AU30" s="50"/>
+      <c r="AV30" s="50"/>
+      <c r="AW30" s="51"/>
     </row>
     <row r="31" spans="43:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AQ31" s="61"/>
-      <c r="AR31" s="62"/>
-      <c r="AS31" s="62"/>
-      <c r="AT31" s="62"/>
-      <c r="AU31" s="62"/>
-      <c r="AV31" s="62"/>
-      <c r="AW31" s="63"/>
+      <c r="AQ31" s="49"/>
+      <c r="AR31" s="50"/>
+      <c r="AS31" s="50"/>
+      <c r="AT31" s="50"/>
+      <c r="AU31" s="50"/>
+      <c r="AV31" s="50"/>
+      <c r="AW31" s="51"/>
     </row>
     <row r="32" spans="43:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AQ32" s="61"/>
-      <c r="AR32" s="62"/>
-      <c r="AS32" s="62"/>
-      <c r="AT32" s="62"/>
-      <c r="AU32" s="62"/>
-      <c r="AV32" s="62"/>
-      <c r="AW32" s="63"/>
+      <c r="AQ32" s="49"/>
+      <c r="AR32" s="50"/>
+      <c r="AS32" s="50"/>
+      <c r="AT32" s="50"/>
+      <c r="AU32" s="50"/>
+      <c r="AV32" s="50"/>
+      <c r="AW32" s="51"/>
     </row>
     <row r="33" spans="2:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AQ33" s="61"/>
-      <c r="AR33" s="62"/>
-      <c r="AS33" s="62"/>
-      <c r="AT33" s="62"/>
-      <c r="AU33" s="62"/>
-      <c r="AV33" s="62"/>
-      <c r="AW33" s="63"/>
+      <c r="AQ33" s="49"/>
+      <c r="AR33" s="50"/>
+      <c r="AS33" s="50"/>
+      <c r="AT33" s="50"/>
+      <c r="AU33" s="50"/>
+      <c r="AV33" s="50"/>
+      <c r="AW33" s="51"/>
     </row>
     <row r="34" spans="2:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AQ34" s="61"/>
-      <c r="AR34" s="62"/>
-      <c r="AS34" s="62"/>
-      <c r="AT34" s="62"/>
-      <c r="AU34" s="62"/>
-      <c r="AV34" s="62"/>
-      <c r="AW34" s="63"/>
+      <c r="AQ34" s="49"/>
+      <c r="AR34" s="50"/>
+      <c r="AS34" s="50"/>
+      <c r="AT34" s="50"/>
+      <c r="AU34" s="50"/>
+      <c r="AV34" s="50"/>
+      <c r="AW34" s="51"/>
     </row>
     <row r="35" spans="2:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AQ35" s="61"/>
-      <c r="AR35" s="62"/>
-      <c r="AS35" s="62"/>
-      <c r="AT35" s="62"/>
-      <c r="AU35" s="62"/>
-      <c r="AV35" s="62"/>
-      <c r="AW35" s="63"/>
+      <c r="AQ35" s="49"/>
+      <c r="AR35" s="50"/>
+      <c r="AS35" s="50"/>
+      <c r="AT35" s="50"/>
+      <c r="AU35" s="50"/>
+      <c r="AV35" s="50"/>
+      <c r="AW35" s="51"/>
     </row>
     <row r="36" spans="2:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AQ36" s="61"/>
-      <c r="AR36" s="62"/>
-      <c r="AS36" s="62"/>
-      <c r="AT36" s="62"/>
-      <c r="AU36" s="62"/>
-      <c r="AV36" s="62"/>
-      <c r="AW36" s="63"/>
+      <c r="AQ36" s="49"/>
+      <c r="AR36" s="50"/>
+      <c r="AS36" s="50"/>
+      <c r="AT36" s="50"/>
+      <c r="AU36" s="50"/>
+      <c r="AV36" s="50"/>
+      <c r="AW36" s="51"/>
     </row>
     <row r="37" spans="2:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AQ37" s="61"/>
-      <c r="AR37" s="62"/>
-      <c r="AS37" s="62"/>
-      <c r="AT37" s="62"/>
-      <c r="AU37" s="62"/>
-      <c r="AV37" s="62"/>
-      <c r="AW37" s="63"/>
+      <c r="AQ37" s="49"/>
+      <c r="AR37" s="50"/>
+      <c r="AS37" s="50"/>
+      <c r="AT37" s="50"/>
+      <c r="AU37" s="50"/>
+      <c r="AV37" s="50"/>
+      <c r="AW37" s="51"/>
     </row>
     <row r="38" spans="2:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AQ38" s="61"/>
-      <c r="AR38" s="62"/>
-      <c r="AS38" s="62"/>
-      <c r="AT38" s="62"/>
-      <c r="AU38" s="62"/>
-      <c r="AV38" s="62"/>
-      <c r="AW38" s="63"/>
+      <c r="AQ38" s="49"/>
+      <c r="AR38" s="50"/>
+      <c r="AS38" s="50"/>
+      <c r="AT38" s="50"/>
+      <c r="AU38" s="50"/>
+      <c r="AV38" s="50"/>
+      <c r="AW38" s="51"/>
     </row>
     <row r="39" spans="2:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AQ39" s="61"/>
-      <c r="AR39" s="62"/>
-      <c r="AS39" s="62"/>
-      <c r="AT39" s="62"/>
-      <c r="AU39" s="62"/>
-      <c r="AV39" s="62"/>
-      <c r="AW39" s="63"/>
+      <c r="AQ39" s="49"/>
+      <c r="AR39" s="50"/>
+      <c r="AS39" s="50"/>
+      <c r="AT39" s="50"/>
+      <c r="AU39" s="50"/>
+      <c r="AV39" s="50"/>
+      <c r="AW39" s="51"/>
     </row>
     <row r="40" spans="2:49" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AQ40" s="61"/>
-      <c r="AR40" s="62"/>
-      <c r="AS40" s="62"/>
-      <c r="AT40" s="62"/>
-      <c r="AU40" s="62"/>
-      <c r="AV40" s="62"/>
-      <c r="AW40" s="63"/>
+      <c r="AQ40" s="49"/>
+      <c r="AR40" s="50"/>
+      <c r="AS40" s="50"/>
+      <c r="AT40" s="50"/>
+      <c r="AU40" s="50"/>
+      <c r="AV40" s="50"/>
+      <c r="AW40" s="51"/>
     </row>
     <row r="41" spans="2:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="59"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="75">
+      <c r="C41" s="47"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="63">
         <f>Data!C14</f>
         <v>0</v>
       </c>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="59"/>
-      <c r="N41" s="59"/>
-      <c r="O41" s="59"/>
-      <c r="P41" s="59"/>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="59"/>
-      <c r="S41" s="59"/>
-      <c r="T41" s="59"/>
-      <c r="U41" s="59"/>
-      <c r="V41" s="59"/>
-      <c r="W41" s="60"/>
-      <c r="X41" s="69" t="s">
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="47"/>
+      <c r="R41" s="47"/>
+      <c r="S41" s="47"/>
+      <c r="T41" s="47"/>
+      <c r="U41" s="47"/>
+      <c r="V41" s="47"/>
+      <c r="W41" s="48"/>
+      <c r="X41" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="Y41" s="59"/>
-      <c r="Z41" s="60"/>
-      <c r="AA41" s="76">
-        <f>Data!C18</f>
-        <v>9000</v>
+      <c r="Y41" s="47"/>
+      <c r="Z41" s="48"/>
+      <c r="AA41" s="64">
+        <f>Data!C28</f>
+        <v>0</v>
       </c>
-      <c r="AB41" s="59"/>
-      <c r="AC41" s="59"/>
-      <c r="AD41" s="59"/>
-      <c r="AE41" s="59"/>
-      <c r="AF41" s="59"/>
-      <c r="AG41" s="59"/>
-      <c r="AH41" s="59"/>
-      <c r="AI41" s="59"/>
-      <c r="AJ41" s="59"/>
-      <c r="AK41" s="59"/>
-      <c r="AL41" s="59"/>
-      <c r="AM41" s="59"/>
-      <c r="AN41" s="59"/>
-      <c r="AO41" s="59"/>
-      <c r="AP41" s="59"/>
-      <c r="AQ41" s="61"/>
-      <c r="AR41" s="62"/>
-      <c r="AS41" s="62"/>
-      <c r="AT41" s="62"/>
-      <c r="AU41" s="62"/>
-      <c r="AV41" s="62"/>
-      <c r="AW41" s="63"/>
+      <c r="AB41" s="47"/>
+      <c r="AC41" s="47"/>
+      <c r="AD41" s="47"/>
+      <c r="AE41" s="47"/>
+      <c r="AF41" s="47"/>
+      <c r="AG41" s="47"/>
+      <c r="AH41" s="47"/>
+      <c r="AI41" s="47"/>
+      <c r="AJ41" s="47"/>
+      <c r="AK41" s="47"/>
+      <c r="AL41" s="47"/>
+      <c r="AM41" s="47"/>
+      <c r="AN41" s="47"/>
+      <c r="AO41" s="47"/>
+      <c r="AP41" s="47"/>
+      <c r="AQ41" s="49"/>
+      <c r="AR41" s="50"/>
+      <c r="AS41" s="50"/>
+      <c r="AT41" s="50"/>
+      <c r="AU41" s="50"/>
+      <c r="AV41" s="50"/>
+      <c r="AW41" s="51"/>
     </row>
     <row r="42" spans="2:49" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="64"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="65"/>
-      <c r="M42" s="65"/>
-      <c r="N42" s="65"/>
-      <c r="O42" s="65"/>
-      <c r="P42" s="65"/>
-      <c r="Q42" s="65"/>
-      <c r="R42" s="65"/>
-      <c r="S42" s="65"/>
-      <c r="T42" s="65"/>
-      <c r="U42" s="65"/>
-      <c r="V42" s="65"/>
-      <c r="W42" s="66"/>
-      <c r="X42" s="64"/>
-      <c r="Y42" s="65"/>
-      <c r="Z42" s="66"/>
-      <c r="AA42" s="65"/>
-      <c r="AB42" s="65"/>
-      <c r="AC42" s="65"/>
-      <c r="AD42" s="65"/>
-      <c r="AE42" s="65"/>
-      <c r="AF42" s="65"/>
-      <c r="AG42" s="65"/>
-      <c r="AH42" s="65"/>
-      <c r="AI42" s="65"/>
-      <c r="AJ42" s="65"/>
-      <c r="AK42" s="65"/>
-      <c r="AL42" s="65"/>
-      <c r="AM42" s="65"/>
-      <c r="AN42" s="65"/>
-      <c r="AO42" s="65"/>
-      <c r="AP42" s="65"/>
-      <c r="AQ42" s="64"/>
-      <c r="AR42" s="65"/>
-      <c r="AS42" s="65"/>
-      <c r="AT42" s="65"/>
-      <c r="AU42" s="65"/>
-      <c r="AV42" s="65"/>
-      <c r="AW42" s="66"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="53"/>
+      <c r="R42" s="53"/>
+      <c r="S42" s="53"/>
+      <c r="T42" s="53"/>
+      <c r="U42" s="53"/>
+      <c r="V42" s="53"/>
+      <c r="W42" s="54"/>
+      <c r="X42" s="52"/>
+      <c r="Y42" s="53"/>
+      <c r="Z42" s="54"/>
+      <c r="AA42" s="53"/>
+      <c r="AB42" s="53"/>
+      <c r="AC42" s="53"/>
+      <c r="AD42" s="53"/>
+      <c r="AE42" s="53"/>
+      <c r="AF42" s="53"/>
+      <c r="AG42" s="53"/>
+      <c r="AH42" s="53"/>
+      <c r="AI42" s="53"/>
+      <c r="AJ42" s="53"/>
+      <c r="AK42" s="53"/>
+      <c r="AL42" s="53"/>
+      <c r="AM42" s="53"/>
+      <c r="AN42" s="53"/>
+      <c r="AO42" s="53"/>
+      <c r="AP42" s="53"/>
+      <c r="AQ42" s="52"/>
+      <c r="AR42" s="53"/>
+      <c r="AS42" s="53"/>
+      <c r="AT42" s="53"/>
+      <c r="AU42" s="53"/>
+      <c r="AV42" s="53"/>
+      <c r="AW42" s="54"/>
     </row>
     <row r="43" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="AC43" s="72" t="s">
+      <c r="AC43" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="AD43" s="62"/>
-      <c r="AE43" s="62"/>
-      <c r="AF43" s="62"/>
-      <c r="AG43" s="62"/>
-      <c r="AH43" s="62"/>
-      <c r="AI43" s="62"/>
-      <c r="AJ43" s="62"/>
-      <c r="AK43" s="62"/>
-      <c r="AL43" s="62"/>
-      <c r="AM43" s="62"/>
-      <c r="AN43" s="62"/>
-      <c r="AO43" s="62"/>
-      <c r="AP43" s="62"/>
-      <c r="AQ43" s="62"/>
-      <c r="AR43" s="62"/>
-      <c r="AS43" s="62"/>
-      <c r="AT43" s="62"/>
-      <c r="AU43" s="62"/>
-      <c r="AV43" s="62"/>
-      <c r="AW43" s="63"/>
+      <c r="AD43" s="50"/>
+      <c r="AE43" s="50"/>
+      <c r="AF43" s="50"/>
+      <c r="AG43" s="50"/>
+      <c r="AH43" s="50"/>
+      <c r="AI43" s="50"/>
+      <c r="AJ43" s="50"/>
+      <c r="AK43" s="50"/>
+      <c r="AL43" s="50"/>
+      <c r="AM43" s="50"/>
+      <c r="AN43" s="50"/>
+      <c r="AO43" s="50"/>
+      <c r="AP43" s="50"/>
+      <c r="AQ43" s="50"/>
+      <c r="AR43" s="50"/>
+      <c r="AS43" s="50"/>
+      <c r="AT43" s="50"/>
+      <c r="AU43" s="50"/>
+      <c r="AV43" s="50"/>
+      <c r="AW43" s="51"/>
     </row>
     <row r="44" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="AC44" s="61"/>
-      <c r="AD44" s="62"/>
-      <c r="AE44" s="62"/>
-      <c r="AF44" s="62"/>
-      <c r="AG44" s="62"/>
-      <c r="AH44" s="62"/>
-      <c r="AI44" s="62"/>
-      <c r="AJ44" s="62"/>
-      <c r="AK44" s="62"/>
-      <c r="AL44" s="62"/>
-      <c r="AM44" s="62"/>
-      <c r="AN44" s="62"/>
-      <c r="AO44" s="62"/>
-      <c r="AP44" s="62"/>
-      <c r="AQ44" s="62"/>
-      <c r="AR44" s="62"/>
-      <c r="AS44" s="62"/>
-      <c r="AT44" s="62"/>
-      <c r="AU44" s="62"/>
-      <c r="AV44" s="62"/>
-      <c r="AW44" s="63"/>
+      <c r="AC44" s="49"/>
+      <c r="AD44" s="50"/>
+      <c r="AE44" s="50"/>
+      <c r="AF44" s="50"/>
+      <c r="AG44" s="50"/>
+      <c r="AH44" s="50"/>
+      <c r="AI44" s="50"/>
+      <c r="AJ44" s="50"/>
+      <c r="AK44" s="50"/>
+      <c r="AL44" s="50"/>
+      <c r="AM44" s="50"/>
+      <c r="AN44" s="50"/>
+      <c r="AO44" s="50"/>
+      <c r="AP44" s="50"/>
+      <c r="AQ44" s="50"/>
+      <c r="AR44" s="50"/>
+      <c r="AS44" s="50"/>
+      <c r="AT44" s="50"/>
+      <c r="AU44" s="50"/>
+      <c r="AV44" s="50"/>
+      <c r="AW44" s="51"/>
     </row>
     <row r="45" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="AC45" s="61"/>
-      <c r="AD45" s="62"/>
-      <c r="AE45" s="62"/>
-      <c r="AF45" s="62"/>
-      <c r="AG45" s="62"/>
-      <c r="AH45" s="62"/>
-      <c r="AI45" s="62"/>
-      <c r="AJ45" s="62"/>
-      <c r="AK45" s="62"/>
-      <c r="AL45" s="62"/>
-      <c r="AM45" s="62"/>
-      <c r="AN45" s="62"/>
-      <c r="AO45" s="62"/>
-      <c r="AP45" s="62"/>
-      <c r="AQ45" s="62"/>
-      <c r="AR45" s="62"/>
-      <c r="AS45" s="62"/>
-      <c r="AT45" s="62"/>
-      <c r="AU45" s="62"/>
-      <c r="AV45" s="62"/>
-      <c r="AW45" s="63"/>
+      <c r="AC45" s="49"/>
+      <c r="AD45" s="50"/>
+      <c r="AE45" s="50"/>
+      <c r="AF45" s="50"/>
+      <c r="AG45" s="50"/>
+      <c r="AH45" s="50"/>
+      <c r="AI45" s="50"/>
+      <c r="AJ45" s="50"/>
+      <c r="AK45" s="50"/>
+      <c r="AL45" s="50"/>
+      <c r="AM45" s="50"/>
+      <c r="AN45" s="50"/>
+      <c r="AO45" s="50"/>
+      <c r="AP45" s="50"/>
+      <c r="AQ45" s="50"/>
+      <c r="AR45" s="50"/>
+      <c r="AS45" s="50"/>
+      <c r="AT45" s="50"/>
+      <c r="AU45" s="50"/>
+      <c r="AV45" s="50"/>
+      <c r="AW45" s="51"/>
     </row>
     <row r="46" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="AC46" s="61"/>
-      <c r="AD46" s="62"/>
-      <c r="AE46" s="62"/>
-      <c r="AF46" s="62"/>
-      <c r="AG46" s="62"/>
-      <c r="AH46" s="62"/>
-      <c r="AI46" s="62"/>
-      <c r="AJ46" s="62"/>
-      <c r="AK46" s="62"/>
-      <c r="AL46" s="62"/>
-      <c r="AM46" s="62"/>
-      <c r="AN46" s="62"/>
-      <c r="AO46" s="62"/>
-      <c r="AP46" s="62"/>
-      <c r="AQ46" s="62"/>
-      <c r="AR46" s="62"/>
-      <c r="AS46" s="62"/>
-      <c r="AT46" s="62"/>
-      <c r="AU46" s="62"/>
-      <c r="AV46" s="62"/>
-      <c r="AW46" s="63"/>
+      <c r="AC46" s="49"/>
+      <c r="AD46" s="50"/>
+      <c r="AE46" s="50"/>
+      <c r="AF46" s="50"/>
+      <c r="AG46" s="50"/>
+      <c r="AH46" s="50"/>
+      <c r="AI46" s="50"/>
+      <c r="AJ46" s="50"/>
+      <c r="AK46" s="50"/>
+      <c r="AL46" s="50"/>
+      <c r="AM46" s="50"/>
+      <c r="AN46" s="50"/>
+      <c r="AO46" s="50"/>
+      <c r="AP46" s="50"/>
+      <c r="AQ46" s="50"/>
+      <c r="AR46" s="50"/>
+      <c r="AS46" s="50"/>
+      <c r="AT46" s="50"/>
+      <c r="AU46" s="50"/>
+      <c r="AV46" s="50"/>
+      <c r="AW46" s="51"/>
     </row>
     <row r="47" spans="2:49" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC47" s="64"/>
-      <c r="AD47" s="65"/>
-      <c r="AE47" s="65"/>
-      <c r="AF47" s="65"/>
-      <c r="AG47" s="65"/>
-      <c r="AH47" s="65"/>
-      <c r="AI47" s="65"/>
-      <c r="AJ47" s="65"/>
-      <c r="AK47" s="65"/>
-      <c r="AL47" s="65"/>
-      <c r="AM47" s="65"/>
-      <c r="AN47" s="65"/>
-      <c r="AO47" s="65"/>
-      <c r="AP47" s="65"/>
-      <c r="AQ47" s="65"/>
-      <c r="AR47" s="65"/>
-      <c r="AS47" s="65"/>
-      <c r="AT47" s="65"/>
-      <c r="AU47" s="65"/>
-      <c r="AV47" s="65"/>
-      <c r="AW47" s="66"/>
+      <c r="AC47" s="52"/>
+      <c r="AD47" s="53"/>
+      <c r="AE47" s="53"/>
+      <c r="AF47" s="53"/>
+      <c r="AG47" s="53"/>
+      <c r="AH47" s="53"/>
+      <c r="AI47" s="53"/>
+      <c r="AJ47" s="53"/>
+      <c r="AK47" s="53"/>
+      <c r="AL47" s="53"/>
+      <c r="AM47" s="53"/>
+      <c r="AN47" s="53"/>
+      <c r="AO47" s="53"/>
+      <c r="AP47" s="53"/>
+      <c r="AQ47" s="53"/>
+      <c r="AR47" s="53"/>
+      <c r="AS47" s="53"/>
+      <c r="AT47" s="53"/>
+      <c r="AU47" s="53"/>
+      <c r="AV47" s="53"/>
+      <c r="AW47" s="54"/>
     </row>
     <row r="48" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="AC48" s="73">
+      <c r="AC48" s="61">
         <f>'Tax Comp'!E44</f>
         <v>-400</v>
       </c>
-      <c r="AD48" s="59"/>
-      <c r="AE48" s="59"/>
-      <c r="AF48" s="59"/>
-      <c r="AG48" s="59"/>
-      <c r="AH48" s="59"/>
-      <c r="AI48" s="59"/>
-      <c r="AJ48" s="59"/>
-      <c r="AK48" s="59"/>
-      <c r="AL48" s="59"/>
-      <c r="AM48" s="59"/>
-      <c r="AN48" s="59"/>
-      <c r="AO48" s="59"/>
-      <c r="AP48" s="59"/>
-      <c r="AQ48" s="59"/>
-      <c r="AR48" s="59"/>
-      <c r="AS48" s="59"/>
-      <c r="AT48" s="59"/>
-      <c r="AU48" s="59"/>
-      <c r="AV48" s="59"/>
-      <c r="AW48" s="60"/>
+      <c r="AD48" s="47"/>
+      <c r="AE48" s="47"/>
+      <c r="AF48" s="47"/>
+      <c r="AG48" s="47"/>
+      <c r="AH48" s="47"/>
+      <c r="AI48" s="47"/>
+      <c r="AJ48" s="47"/>
+      <c r="AK48" s="47"/>
+      <c r="AL48" s="47"/>
+      <c r="AM48" s="47"/>
+      <c r="AN48" s="47"/>
+      <c r="AO48" s="47"/>
+      <c r="AP48" s="47"/>
+      <c r="AQ48" s="47"/>
+      <c r="AR48" s="47"/>
+      <c r="AS48" s="47"/>
+      <c r="AT48" s="47"/>
+      <c r="AU48" s="47"/>
+      <c r="AV48" s="47"/>
+      <c r="AW48" s="48"/>
     </row>
     <row r="49" spans="29:49" x14ac:dyDescent="0.25">
-      <c r="AC49" s="61"/>
-      <c r="AD49" s="62"/>
-      <c r="AE49" s="62"/>
-      <c r="AF49" s="62"/>
-      <c r="AG49" s="62"/>
-      <c r="AH49" s="62"/>
-      <c r="AI49" s="62"/>
-      <c r="AJ49" s="62"/>
-      <c r="AK49" s="62"/>
-      <c r="AL49" s="62"/>
-      <c r="AM49" s="62"/>
-      <c r="AN49" s="62"/>
-      <c r="AO49" s="62"/>
-      <c r="AP49" s="62"/>
-      <c r="AQ49" s="62"/>
-      <c r="AR49" s="62"/>
-      <c r="AS49" s="62"/>
-      <c r="AT49" s="62"/>
-      <c r="AU49" s="62"/>
-      <c r="AV49" s="62"/>
-      <c r="AW49" s="63"/>
+      <c r="AC49" s="49"/>
+      <c r="AD49" s="50"/>
+      <c r="AE49" s="50"/>
+      <c r="AF49" s="50"/>
+      <c r="AG49" s="50"/>
+      <c r="AH49" s="50"/>
+      <c r="AI49" s="50"/>
+      <c r="AJ49" s="50"/>
+      <c r="AK49" s="50"/>
+      <c r="AL49" s="50"/>
+      <c r="AM49" s="50"/>
+      <c r="AN49" s="50"/>
+      <c r="AO49" s="50"/>
+      <c r="AP49" s="50"/>
+      <c r="AQ49" s="50"/>
+      <c r="AR49" s="50"/>
+      <c r="AS49" s="50"/>
+      <c r="AT49" s="50"/>
+      <c r="AU49" s="50"/>
+      <c r="AV49" s="50"/>
+      <c r="AW49" s="51"/>
     </row>
     <row r="50" spans="29:49" x14ac:dyDescent="0.25">
-      <c r="AC50" s="61"/>
-      <c r="AD50" s="62"/>
-      <c r="AE50" s="62"/>
-      <c r="AF50" s="62"/>
-      <c r="AG50" s="62"/>
-      <c r="AH50" s="62"/>
-      <c r="AI50" s="62"/>
-      <c r="AJ50" s="62"/>
-      <c r="AK50" s="62"/>
-      <c r="AL50" s="62"/>
-      <c r="AM50" s="62"/>
-      <c r="AN50" s="62"/>
-      <c r="AO50" s="62"/>
-      <c r="AP50" s="62"/>
-      <c r="AQ50" s="62"/>
-      <c r="AR50" s="62"/>
-      <c r="AS50" s="62"/>
-      <c r="AT50" s="62"/>
-      <c r="AU50" s="62"/>
-      <c r="AV50" s="62"/>
-      <c r="AW50" s="63"/>
+      <c r="AC50" s="49"/>
+      <c r="AD50" s="50"/>
+      <c r="AE50" s="50"/>
+      <c r="AF50" s="50"/>
+      <c r="AG50" s="50"/>
+      <c r="AH50" s="50"/>
+      <c r="AI50" s="50"/>
+      <c r="AJ50" s="50"/>
+      <c r="AK50" s="50"/>
+      <c r="AL50" s="50"/>
+      <c r="AM50" s="50"/>
+      <c r="AN50" s="50"/>
+      <c r="AO50" s="50"/>
+      <c r="AP50" s="50"/>
+      <c r="AQ50" s="50"/>
+      <c r="AR50" s="50"/>
+      <c r="AS50" s="50"/>
+      <c r="AT50" s="50"/>
+      <c r="AU50" s="50"/>
+      <c r="AV50" s="50"/>
+      <c r="AW50" s="51"/>
     </row>
     <row r="51" spans="29:49" x14ac:dyDescent="0.25">
-      <c r="AC51" s="61"/>
-      <c r="AD51" s="62"/>
-      <c r="AE51" s="62"/>
-      <c r="AF51" s="62"/>
-      <c r="AG51" s="62"/>
-      <c r="AH51" s="62"/>
-      <c r="AI51" s="62"/>
-      <c r="AJ51" s="62"/>
-      <c r="AK51" s="62"/>
-      <c r="AL51" s="62"/>
-      <c r="AM51" s="62"/>
-      <c r="AN51" s="62"/>
-      <c r="AO51" s="62"/>
-      <c r="AP51" s="62"/>
-      <c r="AQ51" s="62"/>
-      <c r="AR51" s="62"/>
-      <c r="AS51" s="62"/>
-      <c r="AT51" s="62"/>
-      <c r="AU51" s="62"/>
-      <c r="AV51" s="62"/>
-      <c r="AW51" s="63"/>
+      <c r="AC51" s="49"/>
+      <c r="AD51" s="50"/>
+      <c r="AE51" s="50"/>
+      <c r="AF51" s="50"/>
+      <c r="AG51" s="50"/>
+      <c r="AH51" s="50"/>
+      <c r="AI51" s="50"/>
+      <c r="AJ51" s="50"/>
+      <c r="AK51" s="50"/>
+      <c r="AL51" s="50"/>
+      <c r="AM51" s="50"/>
+      <c r="AN51" s="50"/>
+      <c r="AO51" s="50"/>
+      <c r="AP51" s="50"/>
+      <c r="AQ51" s="50"/>
+      <c r="AR51" s="50"/>
+      <c r="AS51" s="50"/>
+      <c r="AT51" s="50"/>
+      <c r="AU51" s="50"/>
+      <c r="AV51" s="50"/>
+      <c r="AW51" s="51"/>
     </row>
     <row r="52" spans="29:49" x14ac:dyDescent="0.25">
-      <c r="AC52" s="61"/>
-      <c r="AD52" s="62"/>
-      <c r="AE52" s="62"/>
-      <c r="AF52" s="62"/>
-      <c r="AG52" s="62"/>
-      <c r="AH52" s="62"/>
-      <c r="AI52" s="62"/>
-      <c r="AJ52" s="62"/>
-      <c r="AK52" s="62"/>
-      <c r="AL52" s="62"/>
-      <c r="AM52" s="62"/>
-      <c r="AN52" s="62"/>
-      <c r="AO52" s="62"/>
-      <c r="AP52" s="62"/>
-      <c r="AQ52" s="62"/>
-      <c r="AR52" s="62"/>
-      <c r="AS52" s="62"/>
-      <c r="AT52" s="62"/>
-      <c r="AU52" s="62"/>
-      <c r="AV52" s="62"/>
-      <c r="AW52" s="63"/>
+      <c r="AC52" s="49"/>
+      <c r="AD52" s="50"/>
+      <c r="AE52" s="50"/>
+      <c r="AF52" s="50"/>
+      <c r="AG52" s="50"/>
+      <c r="AH52" s="50"/>
+      <c r="AI52" s="50"/>
+      <c r="AJ52" s="50"/>
+      <c r="AK52" s="50"/>
+      <c r="AL52" s="50"/>
+      <c r="AM52" s="50"/>
+      <c r="AN52" s="50"/>
+      <c r="AO52" s="50"/>
+      <c r="AP52" s="50"/>
+      <c r="AQ52" s="50"/>
+      <c r="AR52" s="50"/>
+      <c r="AS52" s="50"/>
+      <c r="AT52" s="50"/>
+      <c r="AU52" s="50"/>
+      <c r="AV52" s="50"/>
+      <c r="AW52" s="51"/>
     </row>
     <row r="53" spans="29:49" x14ac:dyDescent="0.25">
-      <c r="AC53" s="61"/>
-      <c r="AD53" s="62"/>
-      <c r="AE53" s="62"/>
-      <c r="AF53" s="62"/>
-      <c r="AG53" s="62"/>
-      <c r="AH53" s="62"/>
-      <c r="AI53" s="62"/>
-      <c r="AJ53" s="62"/>
-      <c r="AK53" s="62"/>
-      <c r="AL53" s="62"/>
-      <c r="AM53" s="62"/>
-      <c r="AN53" s="62"/>
-      <c r="AO53" s="62"/>
-      <c r="AP53" s="62"/>
-      <c r="AQ53" s="62"/>
-      <c r="AR53" s="62"/>
-      <c r="AS53" s="62"/>
-      <c r="AT53" s="62"/>
-      <c r="AU53" s="62"/>
-      <c r="AV53" s="62"/>
-      <c r="AW53" s="63"/>
+      <c r="AC53" s="49"/>
+      <c r="AD53" s="50"/>
+      <c r="AE53" s="50"/>
+      <c r="AF53" s="50"/>
+      <c r="AG53" s="50"/>
+      <c r="AH53" s="50"/>
+      <c r="AI53" s="50"/>
+      <c r="AJ53" s="50"/>
+      <c r="AK53" s="50"/>
+      <c r="AL53" s="50"/>
+      <c r="AM53" s="50"/>
+      <c r="AN53" s="50"/>
+      <c r="AO53" s="50"/>
+      <c r="AP53" s="50"/>
+      <c r="AQ53" s="50"/>
+      <c r="AR53" s="50"/>
+      <c r="AS53" s="50"/>
+      <c r="AT53" s="50"/>
+      <c r="AU53" s="50"/>
+      <c r="AV53" s="50"/>
+      <c r="AW53" s="51"/>
     </row>
     <row r="54" spans="29:49" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC54" s="64"/>
-      <c r="AD54" s="65"/>
-      <c r="AE54" s="65"/>
-      <c r="AF54" s="65"/>
-      <c r="AG54" s="65"/>
-      <c r="AH54" s="65"/>
-      <c r="AI54" s="65"/>
-      <c r="AJ54" s="65"/>
-      <c r="AK54" s="65"/>
-      <c r="AL54" s="65"/>
-      <c r="AM54" s="65"/>
-      <c r="AN54" s="65"/>
-      <c r="AO54" s="65"/>
-      <c r="AP54" s="65"/>
-      <c r="AQ54" s="65"/>
-      <c r="AR54" s="65"/>
-      <c r="AS54" s="65"/>
-      <c r="AT54" s="65"/>
-      <c r="AU54" s="65"/>
-      <c r="AV54" s="65"/>
-      <c r="AW54" s="66"/>
+      <c r="AC54" s="52"/>
+      <c r="AD54" s="53"/>
+      <c r="AE54" s="53"/>
+      <c r="AF54" s="53"/>
+      <c r="AG54" s="53"/>
+      <c r="AH54" s="53"/>
+      <c r="AI54" s="53"/>
+      <c r="AJ54" s="53"/>
+      <c r="AK54" s="53"/>
+      <c r="AL54" s="53"/>
+      <c r="AM54" s="53"/>
+      <c r="AN54" s="53"/>
+      <c r="AO54" s="53"/>
+      <c r="AP54" s="53"/>
+      <c r="AQ54" s="53"/>
+      <c r="AR54" s="53"/>
+      <c r="AS54" s="53"/>
+      <c r="AT54" s="53"/>
+      <c r="AU54" s="53"/>
+      <c r="AV54" s="53"/>
+      <c r="AW54" s="54"/>
     </row>
     <row r="55" spans="29:49" x14ac:dyDescent="0.25">
-      <c r="AC55" s="68" t="s">
+      <c r="AC55" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="AD55" s="59"/>
-      <c r="AE55" s="59"/>
-      <c r="AF55" s="59"/>
-      <c r="AG55" s="59"/>
-      <c r="AH55" s="59"/>
-      <c r="AI55" s="59"/>
-      <c r="AJ55" s="59"/>
-      <c r="AK55" s="59"/>
-      <c r="AL55" s="59"/>
-      <c r="AM55" s="59"/>
-      <c r="AN55" s="59"/>
-      <c r="AO55" s="59"/>
-      <c r="AP55" s="59"/>
-      <c r="AQ55" s="59"/>
-      <c r="AR55" s="59"/>
-      <c r="AS55" s="59"/>
-      <c r="AT55" s="59"/>
-      <c r="AU55" s="59"/>
-      <c r="AV55" s="59"/>
-      <c r="AW55" s="60"/>
+      <c r="AD55" s="47"/>
+      <c r="AE55" s="47"/>
+      <c r="AF55" s="47"/>
+      <c r="AG55" s="47"/>
+      <c r="AH55" s="47"/>
+      <c r="AI55" s="47"/>
+      <c r="AJ55" s="47"/>
+      <c r="AK55" s="47"/>
+      <c r="AL55" s="47"/>
+      <c r="AM55" s="47"/>
+      <c r="AN55" s="47"/>
+      <c r="AO55" s="47"/>
+      <c r="AP55" s="47"/>
+      <c r="AQ55" s="47"/>
+      <c r="AR55" s="47"/>
+      <c r="AS55" s="47"/>
+      <c r="AT55" s="47"/>
+      <c r="AU55" s="47"/>
+      <c r="AV55" s="47"/>
+      <c r="AW55" s="48"/>
     </row>
     <row r="56" spans="29:49" x14ac:dyDescent="0.25">
-      <c r="AC56" s="61"/>
-      <c r="AD56" s="62"/>
-      <c r="AE56" s="62"/>
-      <c r="AF56" s="62"/>
-      <c r="AG56" s="62"/>
-      <c r="AH56" s="62"/>
-      <c r="AI56" s="62"/>
-      <c r="AJ56" s="62"/>
-      <c r="AK56" s="62"/>
-      <c r="AL56" s="62"/>
-      <c r="AM56" s="62"/>
-      <c r="AN56" s="62"/>
-      <c r="AO56" s="62"/>
-      <c r="AP56" s="62"/>
-      <c r="AQ56" s="62"/>
-      <c r="AR56" s="62"/>
-      <c r="AS56" s="62"/>
-      <c r="AT56" s="62"/>
-      <c r="AU56" s="62"/>
-      <c r="AV56" s="62"/>
-      <c r="AW56" s="63"/>
+      <c r="AC56" s="49"/>
+      <c r="AD56" s="50"/>
+      <c r="AE56" s="50"/>
+      <c r="AF56" s="50"/>
+      <c r="AG56" s="50"/>
+      <c r="AH56" s="50"/>
+      <c r="AI56" s="50"/>
+      <c r="AJ56" s="50"/>
+      <c r="AK56" s="50"/>
+      <c r="AL56" s="50"/>
+      <c r="AM56" s="50"/>
+      <c r="AN56" s="50"/>
+      <c r="AO56" s="50"/>
+      <c r="AP56" s="50"/>
+      <c r="AQ56" s="50"/>
+      <c r="AR56" s="50"/>
+      <c r="AS56" s="50"/>
+      <c r="AT56" s="50"/>
+      <c r="AU56" s="50"/>
+      <c r="AV56" s="50"/>
+      <c r="AW56" s="51"/>
     </row>
     <row r="57" spans="29:49" x14ac:dyDescent="0.25">
-      <c r="AC57" s="61"/>
-      <c r="AD57" s="62"/>
-      <c r="AE57" s="62"/>
-      <c r="AF57" s="62"/>
-      <c r="AG57" s="62"/>
-      <c r="AH57" s="62"/>
-      <c r="AI57" s="62"/>
-      <c r="AJ57" s="62"/>
-      <c r="AK57" s="62"/>
-      <c r="AL57" s="62"/>
-      <c r="AM57" s="62"/>
-      <c r="AN57" s="62"/>
-      <c r="AO57" s="62"/>
-      <c r="AP57" s="62"/>
-      <c r="AQ57" s="62"/>
-      <c r="AR57" s="62"/>
-      <c r="AS57" s="62"/>
-      <c r="AT57" s="62"/>
-      <c r="AU57" s="62"/>
-      <c r="AV57" s="62"/>
-      <c r="AW57" s="63"/>
+      <c r="AC57" s="49"/>
+      <c r="AD57" s="50"/>
+      <c r="AE57" s="50"/>
+      <c r="AF57" s="50"/>
+      <c r="AG57" s="50"/>
+      <c r="AH57" s="50"/>
+      <c r="AI57" s="50"/>
+      <c r="AJ57" s="50"/>
+      <c r="AK57" s="50"/>
+      <c r="AL57" s="50"/>
+      <c r="AM57" s="50"/>
+      <c r="AN57" s="50"/>
+      <c r="AO57" s="50"/>
+      <c r="AP57" s="50"/>
+      <c r="AQ57" s="50"/>
+      <c r="AR57" s="50"/>
+      <c r="AS57" s="50"/>
+      <c r="AT57" s="50"/>
+      <c r="AU57" s="50"/>
+      <c r="AV57" s="50"/>
+      <c r="AW57" s="51"/>
     </row>
     <row r="58" spans="29:49" x14ac:dyDescent="0.25">
-      <c r="AC58" s="61"/>
-      <c r="AD58" s="62"/>
-      <c r="AE58" s="62"/>
-      <c r="AF58" s="62"/>
-      <c r="AG58" s="62"/>
-      <c r="AH58" s="62"/>
-      <c r="AI58" s="62"/>
-      <c r="AJ58" s="62"/>
-      <c r="AK58" s="62"/>
-      <c r="AL58" s="62"/>
-      <c r="AM58" s="62"/>
-      <c r="AN58" s="62"/>
-      <c r="AO58" s="62"/>
-      <c r="AP58" s="62"/>
-      <c r="AQ58" s="62"/>
-      <c r="AR58" s="62"/>
-      <c r="AS58" s="62"/>
-      <c r="AT58" s="62"/>
-      <c r="AU58" s="62"/>
-      <c r="AV58" s="62"/>
-      <c r="AW58" s="63"/>
+      <c r="AC58" s="49"/>
+      <c r="AD58" s="50"/>
+      <c r="AE58" s="50"/>
+      <c r="AF58" s="50"/>
+      <c r="AG58" s="50"/>
+      <c r="AH58" s="50"/>
+      <c r="AI58" s="50"/>
+      <c r="AJ58" s="50"/>
+      <c r="AK58" s="50"/>
+      <c r="AL58" s="50"/>
+      <c r="AM58" s="50"/>
+      <c r="AN58" s="50"/>
+      <c r="AO58" s="50"/>
+      <c r="AP58" s="50"/>
+      <c r="AQ58" s="50"/>
+      <c r="AR58" s="50"/>
+      <c r="AS58" s="50"/>
+      <c r="AT58" s="50"/>
+      <c r="AU58" s="50"/>
+      <c r="AV58" s="50"/>
+      <c r="AW58" s="51"/>
     </row>
     <row r="59" spans="29:49" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC59" s="64"/>
-      <c r="AD59" s="65"/>
-      <c r="AE59" s="65"/>
-      <c r="AF59" s="65"/>
-      <c r="AG59" s="65"/>
-      <c r="AH59" s="65"/>
-      <c r="AI59" s="65"/>
-      <c r="AJ59" s="65"/>
-      <c r="AK59" s="65"/>
-      <c r="AL59" s="65"/>
-      <c r="AM59" s="65"/>
-      <c r="AN59" s="65"/>
-      <c r="AO59" s="65"/>
-      <c r="AP59" s="65"/>
-      <c r="AQ59" s="65"/>
-      <c r="AR59" s="65"/>
-      <c r="AS59" s="65"/>
-      <c r="AT59" s="65"/>
-      <c r="AU59" s="65"/>
-      <c r="AV59" s="65"/>
-      <c r="AW59" s="66"/>
+      <c r="AC59" s="52"/>
+      <c r="AD59" s="53"/>
+      <c r="AE59" s="53"/>
+      <c r="AF59" s="53"/>
+      <c r="AG59" s="53"/>
+      <c r="AH59" s="53"/>
+      <c r="AI59" s="53"/>
+      <c r="AJ59" s="53"/>
+      <c r="AK59" s="53"/>
+      <c r="AL59" s="53"/>
+      <c r="AM59" s="53"/>
+      <c r="AN59" s="53"/>
+      <c r="AO59" s="53"/>
+      <c r="AP59" s="53"/>
+      <c r="AQ59" s="53"/>
+      <c r="AR59" s="53"/>
+      <c r="AS59" s="53"/>
+      <c r="AT59" s="53"/>
+      <c r="AU59" s="53"/>
+      <c r="AV59" s="53"/>
+      <c r="AW59" s="54"/>
     </row>
     <row r="60" spans="29:49" x14ac:dyDescent="0.25">
-      <c r="AC60" s="70">
+      <c r="AC60" s="58">
         <v>46142</v>
       </c>
-      <c r="AD60" s="59"/>
-      <c r="AE60" s="59"/>
-      <c r="AF60" s="59"/>
-      <c r="AG60" s="59"/>
-      <c r="AH60" s="59"/>
-      <c r="AI60" s="59"/>
-      <c r="AJ60" s="59"/>
-      <c r="AK60" s="59"/>
-      <c r="AL60" s="59"/>
-      <c r="AM60" s="59"/>
-      <c r="AN60" s="59"/>
-      <c r="AO60" s="59"/>
-      <c r="AP60" s="59"/>
-      <c r="AQ60" s="59"/>
-      <c r="AR60" s="59"/>
-      <c r="AS60" s="59"/>
-      <c r="AT60" s="59"/>
-      <c r="AU60" s="59"/>
-      <c r="AV60" s="59"/>
-      <c r="AW60" s="60"/>
+      <c r="AD60" s="47"/>
+      <c r="AE60" s="47"/>
+      <c r="AF60" s="47"/>
+      <c r="AG60" s="47"/>
+      <c r="AH60" s="47"/>
+      <c r="AI60" s="47"/>
+      <c r="AJ60" s="47"/>
+      <c r="AK60" s="47"/>
+      <c r="AL60" s="47"/>
+      <c r="AM60" s="47"/>
+      <c r="AN60" s="47"/>
+      <c r="AO60" s="47"/>
+      <c r="AP60" s="47"/>
+      <c r="AQ60" s="47"/>
+      <c r="AR60" s="47"/>
+      <c r="AS60" s="47"/>
+      <c r="AT60" s="47"/>
+      <c r="AU60" s="47"/>
+      <c r="AV60" s="47"/>
+      <c r="AW60" s="48"/>
     </row>
     <row r="61" spans="29:49" x14ac:dyDescent="0.25">
-      <c r="AC61" s="61"/>
-      <c r="AD61" s="62"/>
-      <c r="AE61" s="62"/>
-      <c r="AF61" s="62"/>
-      <c r="AG61" s="62"/>
-      <c r="AH61" s="62"/>
-      <c r="AI61" s="62"/>
-      <c r="AJ61" s="62"/>
-      <c r="AK61" s="62"/>
-      <c r="AL61" s="62"/>
-      <c r="AM61" s="62"/>
-      <c r="AN61" s="62"/>
-      <c r="AO61" s="62"/>
-      <c r="AP61" s="62"/>
-      <c r="AQ61" s="62"/>
-      <c r="AR61" s="62"/>
-      <c r="AS61" s="62"/>
-      <c r="AT61" s="62"/>
-      <c r="AU61" s="62"/>
-      <c r="AV61" s="62"/>
-      <c r="AW61" s="63"/>
+      <c r="AC61" s="49"/>
+      <c r="AD61" s="50"/>
+      <c r="AE61" s="50"/>
+      <c r="AF61" s="50"/>
+      <c r="AG61" s="50"/>
+      <c r="AH61" s="50"/>
+      <c r="AI61" s="50"/>
+      <c r="AJ61" s="50"/>
+      <c r="AK61" s="50"/>
+      <c r="AL61" s="50"/>
+      <c r="AM61" s="50"/>
+      <c r="AN61" s="50"/>
+      <c r="AO61" s="50"/>
+      <c r="AP61" s="50"/>
+      <c r="AQ61" s="50"/>
+      <c r="AR61" s="50"/>
+      <c r="AS61" s="50"/>
+      <c r="AT61" s="50"/>
+      <c r="AU61" s="50"/>
+      <c r="AV61" s="50"/>
+      <c r="AW61" s="51"/>
     </row>
     <row r="62" spans="29:49" x14ac:dyDescent="0.25">
-      <c r="AC62" s="61"/>
-      <c r="AD62" s="62"/>
-      <c r="AE62" s="62"/>
-      <c r="AF62" s="62"/>
-      <c r="AG62" s="62"/>
-      <c r="AH62" s="62"/>
-      <c r="AI62" s="62"/>
-      <c r="AJ62" s="62"/>
-      <c r="AK62" s="62"/>
-      <c r="AL62" s="62"/>
-      <c r="AM62" s="62"/>
-      <c r="AN62" s="62"/>
-      <c r="AO62" s="62"/>
-      <c r="AP62" s="62"/>
-      <c r="AQ62" s="62"/>
-      <c r="AR62" s="62"/>
-      <c r="AS62" s="62"/>
-      <c r="AT62" s="62"/>
-      <c r="AU62" s="62"/>
-      <c r="AV62" s="62"/>
-      <c r="AW62" s="63"/>
+      <c r="AC62" s="49"/>
+      <c r="AD62" s="50"/>
+      <c r="AE62" s="50"/>
+      <c r="AF62" s="50"/>
+      <c r="AG62" s="50"/>
+      <c r="AH62" s="50"/>
+      <c r="AI62" s="50"/>
+      <c r="AJ62" s="50"/>
+      <c r="AK62" s="50"/>
+      <c r="AL62" s="50"/>
+      <c r="AM62" s="50"/>
+      <c r="AN62" s="50"/>
+      <c r="AO62" s="50"/>
+      <c r="AP62" s="50"/>
+      <c r="AQ62" s="50"/>
+      <c r="AR62" s="50"/>
+      <c r="AS62" s="50"/>
+      <c r="AT62" s="50"/>
+      <c r="AU62" s="50"/>
+      <c r="AV62" s="50"/>
+      <c r="AW62" s="51"/>
     </row>
     <row r="63" spans="29:49" x14ac:dyDescent="0.25">
-      <c r="AC63" s="61"/>
-      <c r="AD63" s="62"/>
-      <c r="AE63" s="62"/>
-      <c r="AF63" s="62"/>
-      <c r="AG63" s="62"/>
-      <c r="AH63" s="62"/>
-      <c r="AI63" s="62"/>
-      <c r="AJ63" s="62"/>
-      <c r="AK63" s="62"/>
-      <c r="AL63" s="62"/>
-      <c r="AM63" s="62"/>
-      <c r="AN63" s="62"/>
-      <c r="AO63" s="62"/>
-      <c r="AP63" s="62"/>
-      <c r="AQ63" s="62"/>
-      <c r="AR63" s="62"/>
-      <c r="AS63" s="62"/>
-      <c r="AT63" s="62"/>
-      <c r="AU63" s="62"/>
-      <c r="AV63" s="62"/>
-      <c r="AW63" s="63"/>
+      <c r="AC63" s="49"/>
+      <c r="AD63" s="50"/>
+      <c r="AE63" s="50"/>
+      <c r="AF63" s="50"/>
+      <c r="AG63" s="50"/>
+      <c r="AH63" s="50"/>
+      <c r="AI63" s="50"/>
+      <c r="AJ63" s="50"/>
+      <c r="AK63" s="50"/>
+      <c r="AL63" s="50"/>
+      <c r="AM63" s="50"/>
+      <c r="AN63" s="50"/>
+      <c r="AO63" s="50"/>
+      <c r="AP63" s="50"/>
+      <c r="AQ63" s="50"/>
+      <c r="AR63" s="50"/>
+      <c r="AS63" s="50"/>
+      <c r="AT63" s="50"/>
+      <c r="AU63" s="50"/>
+      <c r="AV63" s="50"/>
+      <c r="AW63" s="51"/>
     </row>
     <row r="64" spans="29:49" x14ac:dyDescent="0.25">
-      <c r="AC64" s="61"/>
-      <c r="AD64" s="62"/>
-      <c r="AE64" s="62"/>
-      <c r="AF64" s="62"/>
-      <c r="AG64" s="62"/>
-      <c r="AH64" s="62"/>
-      <c r="AI64" s="62"/>
-      <c r="AJ64" s="62"/>
-      <c r="AK64" s="62"/>
-      <c r="AL64" s="62"/>
-      <c r="AM64" s="62"/>
-      <c r="AN64" s="62"/>
-      <c r="AO64" s="62"/>
-      <c r="AP64" s="62"/>
-      <c r="AQ64" s="62"/>
-      <c r="AR64" s="62"/>
-      <c r="AS64" s="62"/>
-      <c r="AT64" s="62"/>
-      <c r="AU64" s="62"/>
-      <c r="AV64" s="62"/>
-      <c r="AW64" s="63"/>
+      <c r="AC64" s="49"/>
+      <c r="AD64" s="50"/>
+      <c r="AE64" s="50"/>
+      <c r="AF64" s="50"/>
+      <c r="AG64" s="50"/>
+      <c r="AH64" s="50"/>
+      <c r="AI64" s="50"/>
+      <c r="AJ64" s="50"/>
+      <c r="AK64" s="50"/>
+      <c r="AL64" s="50"/>
+      <c r="AM64" s="50"/>
+      <c r="AN64" s="50"/>
+      <c r="AO64" s="50"/>
+      <c r="AP64" s="50"/>
+      <c r="AQ64" s="50"/>
+      <c r="AR64" s="50"/>
+      <c r="AS64" s="50"/>
+      <c r="AT64" s="50"/>
+      <c r="AU64" s="50"/>
+      <c r="AV64" s="50"/>
+      <c r="AW64" s="51"/>
     </row>
     <row r="65" spans="2:49" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC65" s="64"/>
-      <c r="AD65" s="65"/>
-      <c r="AE65" s="65"/>
-      <c r="AF65" s="65"/>
-      <c r="AG65" s="65"/>
-      <c r="AH65" s="65"/>
-      <c r="AI65" s="65"/>
-      <c r="AJ65" s="65"/>
-      <c r="AK65" s="65"/>
-      <c r="AL65" s="65"/>
-      <c r="AM65" s="65"/>
-      <c r="AN65" s="65"/>
-      <c r="AO65" s="65"/>
-      <c r="AP65" s="65"/>
-      <c r="AQ65" s="65"/>
-      <c r="AR65" s="65"/>
-      <c r="AS65" s="65"/>
-      <c r="AT65" s="65"/>
-      <c r="AU65" s="65"/>
-      <c r="AV65" s="65"/>
-      <c r="AW65" s="66"/>
+      <c r="AC65" s="52"/>
+      <c r="AD65" s="53"/>
+      <c r="AE65" s="53"/>
+      <c r="AF65" s="53"/>
+      <c r="AG65" s="53"/>
+      <c r="AH65" s="53"/>
+      <c r="AI65" s="53"/>
+      <c r="AJ65" s="53"/>
+      <c r="AK65" s="53"/>
+      <c r="AL65" s="53"/>
+      <c r="AM65" s="53"/>
+      <c r="AN65" s="53"/>
+      <c r="AO65" s="53"/>
+      <c r="AP65" s="53"/>
+      <c r="AQ65" s="53"/>
+      <c r="AR65" s="53"/>
+      <c r="AS65" s="53"/>
+      <c r="AT65" s="53"/>
+      <c r="AU65" s="53"/>
+      <c r="AV65" s="53"/>
+      <c r="AW65" s="54"/>
     </row>
     <row r="66" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B66" s="68" t="s">
+      <c r="B66" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="59"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="59"/>
-      <c r="J66" s="59"/>
-      <c r="K66" s="59"/>
-      <c r="L66" s="59"/>
-      <c r="M66" s="59"/>
-      <c r="N66" s="59"/>
-      <c r="O66" s="59"/>
-      <c r="P66" s="59"/>
-      <c r="Q66" s="59"/>
-      <c r="R66" s="59"/>
-      <c r="S66" s="59"/>
-      <c r="T66" s="59"/>
-      <c r="U66" s="59"/>
-      <c r="V66" s="59"/>
-      <c r="W66" s="59"/>
-      <c r="X66" s="59"/>
-      <c r="Y66" s="59"/>
-      <c r="Z66" s="60"/>
-      <c r="AA66" s="68" t="s">
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="47"/>
+      <c r="J66" s="47"/>
+      <c r="K66" s="47"/>
+      <c r="L66" s="47"/>
+      <c r="M66" s="47"/>
+      <c r="N66" s="47"/>
+      <c r="O66" s="47"/>
+      <c r="P66" s="47"/>
+      <c r="Q66" s="47"/>
+      <c r="R66" s="47"/>
+      <c r="S66" s="47"/>
+      <c r="T66" s="47"/>
+      <c r="U66" s="47"/>
+      <c r="V66" s="47"/>
+      <c r="W66" s="47"/>
+      <c r="X66" s="47"/>
+      <c r="Y66" s="47"/>
+      <c r="Z66" s="48"/>
+      <c r="AA66" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AB66" s="59"/>
-      <c r="AC66" s="59"/>
-      <c r="AD66" s="59"/>
-      <c r="AE66" s="59"/>
-      <c r="AF66" s="59"/>
-      <c r="AG66" s="59"/>
-      <c r="AH66" s="59"/>
-      <c r="AI66" s="59"/>
-      <c r="AJ66" s="59"/>
-      <c r="AK66" s="59"/>
-      <c r="AL66" s="59"/>
-      <c r="AM66" s="59"/>
-      <c r="AN66" s="59"/>
-      <c r="AO66" s="59"/>
-      <c r="AP66" s="59"/>
-      <c r="AQ66" s="59"/>
-      <c r="AR66" s="59"/>
-      <c r="AS66" s="59"/>
-      <c r="AT66" s="59"/>
-      <c r="AU66" s="59"/>
-      <c r="AV66" s="59"/>
-      <c r="AW66" s="60"/>
+      <c r="AB66" s="47"/>
+      <c r="AC66" s="47"/>
+      <c r="AD66" s="47"/>
+      <c r="AE66" s="47"/>
+      <c r="AF66" s="47"/>
+      <c r="AG66" s="47"/>
+      <c r="AH66" s="47"/>
+      <c r="AI66" s="47"/>
+      <c r="AJ66" s="47"/>
+      <c r="AK66" s="47"/>
+      <c r="AL66" s="47"/>
+      <c r="AM66" s="47"/>
+      <c r="AN66" s="47"/>
+      <c r="AO66" s="47"/>
+      <c r="AP66" s="47"/>
+      <c r="AQ66" s="47"/>
+      <c r="AR66" s="47"/>
+      <c r="AS66" s="47"/>
+      <c r="AT66" s="47"/>
+      <c r="AU66" s="47"/>
+      <c r="AV66" s="47"/>
+      <c r="AW66" s="48"/>
     </row>
     <row r="67" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B67" s="61"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="62"/>
-      <c r="G67" s="62"/>
-      <c r="H67" s="62"/>
-      <c r="I67" s="62"/>
-      <c r="J67" s="62"/>
-      <c r="K67" s="62"/>
-      <c r="L67" s="62"/>
-      <c r="M67" s="62"/>
-      <c r="N67" s="62"/>
-      <c r="O67" s="62"/>
-      <c r="P67" s="62"/>
-      <c r="Q67" s="62"/>
-      <c r="R67" s="62"/>
-      <c r="S67" s="62"/>
-      <c r="T67" s="62"/>
-      <c r="U67" s="62"/>
-      <c r="V67" s="62"/>
-      <c r="W67" s="62"/>
-      <c r="X67" s="62"/>
-      <c r="Y67" s="62"/>
-      <c r="Z67" s="63"/>
-      <c r="AA67" s="61"/>
-      <c r="AB67" s="62"/>
-      <c r="AC67" s="62"/>
-      <c r="AD67" s="62"/>
-      <c r="AE67" s="62"/>
-      <c r="AF67" s="62"/>
-      <c r="AG67" s="62"/>
-      <c r="AH67" s="62"/>
-      <c r="AI67" s="62"/>
-      <c r="AJ67" s="62"/>
-      <c r="AK67" s="62"/>
-      <c r="AL67" s="62"/>
-      <c r="AM67" s="62"/>
-      <c r="AN67" s="62"/>
-      <c r="AO67" s="62"/>
-      <c r="AP67" s="62"/>
-      <c r="AQ67" s="62"/>
-      <c r="AR67" s="62"/>
-      <c r="AS67" s="62"/>
-      <c r="AT67" s="62"/>
-      <c r="AU67" s="62"/>
-      <c r="AV67" s="62"/>
-      <c r="AW67" s="63"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="50"/>
+      <c r="K67" s="50"/>
+      <c r="L67" s="50"/>
+      <c r="M67" s="50"/>
+      <c r="N67" s="50"/>
+      <c r="O67" s="50"/>
+      <c r="P67" s="50"/>
+      <c r="Q67" s="50"/>
+      <c r="R67" s="50"/>
+      <c r="S67" s="50"/>
+      <c r="T67" s="50"/>
+      <c r="U67" s="50"/>
+      <c r="V67" s="50"/>
+      <c r="W67" s="50"/>
+      <c r="X67" s="50"/>
+      <c r="Y67" s="50"/>
+      <c r="Z67" s="51"/>
+      <c r="AA67" s="49"/>
+      <c r="AB67" s="50"/>
+      <c r="AC67" s="50"/>
+      <c r="AD67" s="50"/>
+      <c r="AE67" s="50"/>
+      <c r="AF67" s="50"/>
+      <c r="AG67" s="50"/>
+      <c r="AH67" s="50"/>
+      <c r="AI67" s="50"/>
+      <c r="AJ67" s="50"/>
+      <c r="AK67" s="50"/>
+      <c r="AL67" s="50"/>
+      <c r="AM67" s="50"/>
+      <c r="AN67" s="50"/>
+      <c r="AO67" s="50"/>
+      <c r="AP67" s="50"/>
+      <c r="AQ67" s="50"/>
+      <c r="AR67" s="50"/>
+      <c r="AS67" s="50"/>
+      <c r="AT67" s="50"/>
+      <c r="AU67" s="50"/>
+      <c r="AV67" s="50"/>
+      <c r="AW67" s="51"/>
     </row>
     <row r="68" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B68" s="61"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="62"/>
-      <c r="G68" s="62"/>
-      <c r="H68" s="62"/>
-      <c r="I68" s="62"/>
-      <c r="J68" s="62"/>
-      <c r="K68" s="62"/>
-      <c r="L68" s="62"/>
-      <c r="M68" s="62"/>
-      <c r="N68" s="62"/>
-      <c r="O68" s="62"/>
-      <c r="P68" s="62"/>
-      <c r="Q68" s="62"/>
-      <c r="R68" s="62"/>
-      <c r="S68" s="62"/>
-      <c r="T68" s="62"/>
-      <c r="U68" s="62"/>
-      <c r="V68" s="62"/>
-      <c r="W68" s="62"/>
-      <c r="X68" s="62"/>
-      <c r="Y68" s="62"/>
-      <c r="Z68" s="63"/>
-      <c r="AA68" s="61"/>
-      <c r="AB68" s="62"/>
-      <c r="AC68" s="62"/>
-      <c r="AD68" s="62"/>
-      <c r="AE68" s="62"/>
-      <c r="AF68" s="62"/>
-      <c r="AG68" s="62"/>
-      <c r="AH68" s="62"/>
-      <c r="AI68" s="62"/>
-      <c r="AJ68" s="62"/>
-      <c r="AK68" s="62"/>
-      <c r="AL68" s="62"/>
-      <c r="AM68" s="62"/>
-      <c r="AN68" s="62"/>
-      <c r="AO68" s="62"/>
-      <c r="AP68" s="62"/>
-      <c r="AQ68" s="62"/>
-      <c r="AR68" s="62"/>
-      <c r="AS68" s="62"/>
-      <c r="AT68" s="62"/>
-      <c r="AU68" s="62"/>
-      <c r="AV68" s="62"/>
-      <c r="AW68" s="63"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="50"/>
+      <c r="I68" s="50"/>
+      <c r="J68" s="50"/>
+      <c r="K68" s="50"/>
+      <c r="L68" s="50"/>
+      <c r="M68" s="50"/>
+      <c r="N68" s="50"/>
+      <c r="O68" s="50"/>
+      <c r="P68" s="50"/>
+      <c r="Q68" s="50"/>
+      <c r="R68" s="50"/>
+      <c r="S68" s="50"/>
+      <c r="T68" s="50"/>
+      <c r="U68" s="50"/>
+      <c r="V68" s="50"/>
+      <c r="W68" s="50"/>
+      <c r="X68" s="50"/>
+      <c r="Y68" s="50"/>
+      <c r="Z68" s="51"/>
+      <c r="AA68" s="49"/>
+      <c r="AB68" s="50"/>
+      <c r="AC68" s="50"/>
+      <c r="AD68" s="50"/>
+      <c r="AE68" s="50"/>
+      <c r="AF68" s="50"/>
+      <c r="AG68" s="50"/>
+      <c r="AH68" s="50"/>
+      <c r="AI68" s="50"/>
+      <c r="AJ68" s="50"/>
+      <c r="AK68" s="50"/>
+      <c r="AL68" s="50"/>
+      <c r="AM68" s="50"/>
+      <c r="AN68" s="50"/>
+      <c r="AO68" s="50"/>
+      <c r="AP68" s="50"/>
+      <c r="AQ68" s="50"/>
+      <c r="AR68" s="50"/>
+      <c r="AS68" s="50"/>
+      <c r="AT68" s="50"/>
+      <c r="AU68" s="50"/>
+      <c r="AV68" s="50"/>
+      <c r="AW68" s="51"/>
     </row>
     <row r="69" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B69" s="61"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="62"/>
-      <c r="J69" s="62"/>
-      <c r="K69" s="62"/>
-      <c r="L69" s="62"/>
-      <c r="M69" s="62"/>
-      <c r="N69" s="62"/>
-      <c r="O69" s="62"/>
-      <c r="P69" s="62"/>
-      <c r="Q69" s="62"/>
-      <c r="R69" s="62"/>
-      <c r="S69" s="62"/>
-      <c r="T69" s="62"/>
-      <c r="U69" s="62"/>
-      <c r="V69" s="62"/>
-      <c r="W69" s="62"/>
-      <c r="X69" s="62"/>
-      <c r="Y69" s="62"/>
-      <c r="Z69" s="63"/>
-      <c r="AA69" s="61"/>
-      <c r="AB69" s="62"/>
-      <c r="AC69" s="62"/>
-      <c r="AD69" s="62"/>
-      <c r="AE69" s="62"/>
-      <c r="AF69" s="62"/>
-      <c r="AG69" s="62"/>
-      <c r="AH69" s="62"/>
-      <c r="AI69" s="62"/>
-      <c r="AJ69" s="62"/>
-      <c r="AK69" s="62"/>
-      <c r="AL69" s="62"/>
-      <c r="AM69" s="62"/>
-      <c r="AN69" s="62"/>
-      <c r="AO69" s="62"/>
-      <c r="AP69" s="62"/>
-      <c r="AQ69" s="62"/>
-      <c r="AR69" s="62"/>
-      <c r="AS69" s="62"/>
-      <c r="AT69" s="62"/>
-      <c r="AU69" s="62"/>
-      <c r="AV69" s="62"/>
-      <c r="AW69" s="63"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="50"/>
+      <c r="K69" s="50"/>
+      <c r="L69" s="50"/>
+      <c r="M69" s="50"/>
+      <c r="N69" s="50"/>
+      <c r="O69" s="50"/>
+      <c r="P69" s="50"/>
+      <c r="Q69" s="50"/>
+      <c r="R69" s="50"/>
+      <c r="S69" s="50"/>
+      <c r="T69" s="50"/>
+      <c r="U69" s="50"/>
+      <c r="V69" s="50"/>
+      <c r="W69" s="50"/>
+      <c r="X69" s="50"/>
+      <c r="Y69" s="50"/>
+      <c r="Z69" s="51"/>
+      <c r="AA69" s="49"/>
+      <c r="AB69" s="50"/>
+      <c r="AC69" s="50"/>
+      <c r="AD69" s="50"/>
+      <c r="AE69" s="50"/>
+      <c r="AF69" s="50"/>
+      <c r="AG69" s="50"/>
+      <c r="AH69" s="50"/>
+      <c r="AI69" s="50"/>
+      <c r="AJ69" s="50"/>
+      <c r="AK69" s="50"/>
+      <c r="AL69" s="50"/>
+      <c r="AM69" s="50"/>
+      <c r="AN69" s="50"/>
+      <c r="AO69" s="50"/>
+      <c r="AP69" s="50"/>
+      <c r="AQ69" s="50"/>
+      <c r="AR69" s="50"/>
+      <c r="AS69" s="50"/>
+      <c r="AT69" s="50"/>
+      <c r="AU69" s="50"/>
+      <c r="AV69" s="50"/>
+      <c r="AW69" s="51"/>
     </row>
     <row r="70" spans="2:49" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="64"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="65"/>
-      <c r="F70" s="65"/>
-      <c r="G70" s="65"/>
-      <c r="H70" s="65"/>
-      <c r="I70" s="65"/>
-      <c r="J70" s="65"/>
-      <c r="K70" s="65"/>
-      <c r="L70" s="65"/>
-      <c r="M70" s="65"/>
-      <c r="N70" s="65"/>
-      <c r="O70" s="65"/>
-      <c r="P70" s="65"/>
-      <c r="Q70" s="65"/>
-      <c r="R70" s="65"/>
-      <c r="S70" s="65"/>
-      <c r="T70" s="65"/>
-      <c r="U70" s="65"/>
-      <c r="V70" s="65"/>
-      <c r="W70" s="65"/>
-      <c r="X70" s="65"/>
-      <c r="Y70" s="65"/>
-      <c r="Z70" s="66"/>
-      <c r="AA70" s="64"/>
-      <c r="AB70" s="65"/>
-      <c r="AC70" s="65"/>
-      <c r="AD70" s="65"/>
-      <c r="AE70" s="65"/>
-      <c r="AF70" s="65"/>
-      <c r="AG70" s="65"/>
-      <c r="AH70" s="65"/>
-      <c r="AI70" s="65"/>
-      <c r="AJ70" s="65"/>
-      <c r="AK70" s="65"/>
-      <c r="AL70" s="65"/>
-      <c r="AM70" s="65"/>
-      <c r="AN70" s="65"/>
-      <c r="AO70" s="65"/>
-      <c r="AP70" s="65"/>
-      <c r="AQ70" s="65"/>
-      <c r="AR70" s="65"/>
-      <c r="AS70" s="65"/>
-      <c r="AT70" s="65"/>
-      <c r="AU70" s="65"/>
-      <c r="AV70" s="65"/>
-      <c r="AW70" s="66"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="53"/>
+      <c r="J70" s="53"/>
+      <c r="K70" s="53"/>
+      <c r="L70" s="53"/>
+      <c r="M70" s="53"/>
+      <c r="N70" s="53"/>
+      <c r="O70" s="53"/>
+      <c r="P70" s="53"/>
+      <c r="Q70" s="53"/>
+      <c r="R70" s="53"/>
+      <c r="S70" s="53"/>
+      <c r="T70" s="53"/>
+      <c r="U70" s="53"/>
+      <c r="V70" s="53"/>
+      <c r="W70" s="53"/>
+      <c r="X70" s="53"/>
+      <c r="Y70" s="53"/>
+      <c r="Z70" s="54"/>
+      <c r="AA70" s="52"/>
+      <c r="AB70" s="53"/>
+      <c r="AC70" s="53"/>
+      <c r="AD70" s="53"/>
+      <c r="AE70" s="53"/>
+      <c r="AF70" s="53"/>
+      <c r="AG70" s="53"/>
+      <c r="AH70" s="53"/>
+      <c r="AI70" s="53"/>
+      <c r="AJ70" s="53"/>
+      <c r="AK70" s="53"/>
+      <c r="AL70" s="53"/>
+      <c r="AM70" s="53"/>
+      <c r="AN70" s="53"/>
+      <c r="AO70" s="53"/>
+      <c r="AP70" s="53"/>
+      <c r="AQ70" s="53"/>
+      <c r="AR70" s="53"/>
+      <c r="AS70" s="53"/>
+      <c r="AT70" s="53"/>
+      <c r="AU70" s="53"/>
+      <c r="AV70" s="53"/>
+      <c r="AW70" s="54"/>
     </row>
     <row r="71" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B71" s="67">
+      <c r="B71" s="55">
         <f>'Tax Comp'!D34</f>
         <v>0</v>
       </c>
-      <c r="C71" s="59"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="59"/>
-      <c r="G71" s="59"/>
-      <c r="H71" s="59"/>
-      <c r="I71" s="59"/>
-      <c r="J71" s="59"/>
-      <c r="K71" s="59"/>
-      <c r="L71" s="59"/>
-      <c r="M71" s="59"/>
-      <c r="N71" s="59"/>
-      <c r="O71" s="59"/>
-      <c r="P71" s="59"/>
-      <c r="Q71" s="59"/>
-      <c r="R71" s="59"/>
-      <c r="S71" s="59"/>
-      <c r="T71" s="59"/>
-      <c r="U71" s="59"/>
-      <c r="V71" s="59"/>
-      <c r="W71" s="59"/>
-      <c r="X71" s="59"/>
-      <c r="Y71" s="59"/>
-      <c r="Z71" s="60"/>
-      <c r="AA71" s="71" t="e">
+      <c r="C71" s="47"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="47"/>
+      <c r="L71" s="47"/>
+      <c r="M71" s="47"/>
+      <c r="N71" s="47"/>
+      <c r="O71" s="47"/>
+      <c r="P71" s="47"/>
+      <c r="Q71" s="47"/>
+      <c r="R71" s="47"/>
+      <c r="S71" s="47"/>
+      <c r="T71" s="47"/>
+      <c r="U71" s="47"/>
+      <c r="V71" s="47"/>
+      <c r="W71" s="47"/>
+      <c r="X71" s="47"/>
+      <c r="Y71" s="47"/>
+      <c r="Z71" s="48"/>
+      <c r="AA71" s="59" t="e">
         <f>'Tax Comp'!E36/'Tax Comp'!E29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB71" s="59"/>
-      <c r="AC71" s="59"/>
-      <c r="AD71" s="59"/>
-      <c r="AE71" s="59"/>
-      <c r="AF71" s="59"/>
-      <c r="AG71" s="59"/>
-      <c r="AH71" s="59"/>
-      <c r="AI71" s="59"/>
-      <c r="AJ71" s="59"/>
-      <c r="AK71" s="59"/>
-      <c r="AL71" s="59"/>
-      <c r="AM71" s="59"/>
-      <c r="AN71" s="59"/>
-      <c r="AO71" s="59"/>
-      <c r="AP71" s="59"/>
-      <c r="AQ71" s="59"/>
-      <c r="AR71" s="59"/>
-      <c r="AS71" s="59"/>
-      <c r="AT71" s="59"/>
-      <c r="AU71" s="59"/>
-      <c r="AV71" s="59"/>
-      <c r="AW71" s="60"/>
+      <c r="AB71" s="47"/>
+      <c r="AC71" s="47"/>
+      <c r="AD71" s="47"/>
+      <c r="AE71" s="47"/>
+      <c r="AF71" s="47"/>
+      <c r="AG71" s="47"/>
+      <c r="AH71" s="47"/>
+      <c r="AI71" s="47"/>
+      <c r="AJ71" s="47"/>
+      <c r="AK71" s="47"/>
+      <c r="AL71" s="47"/>
+      <c r="AM71" s="47"/>
+      <c r="AN71" s="47"/>
+      <c r="AO71" s="47"/>
+      <c r="AP71" s="47"/>
+      <c r="AQ71" s="47"/>
+      <c r="AR71" s="47"/>
+      <c r="AS71" s="47"/>
+      <c r="AT71" s="47"/>
+      <c r="AU71" s="47"/>
+      <c r="AV71" s="47"/>
+      <c r="AW71" s="48"/>
     </row>
     <row r="72" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B72" s="61"/>
-      <c r="C72" s="62"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="62"/>
-      <c r="G72" s="62"/>
-      <c r="H72" s="62"/>
-      <c r="I72" s="62"/>
-      <c r="J72" s="62"/>
-      <c r="K72" s="62"/>
-      <c r="L72" s="62"/>
-      <c r="M72" s="62"/>
-      <c r="N72" s="62"/>
-      <c r="O72" s="62"/>
-      <c r="P72" s="62"/>
-      <c r="Q72" s="62"/>
-      <c r="R72" s="62"/>
-      <c r="S72" s="62"/>
-      <c r="T72" s="62"/>
-      <c r="U72" s="62"/>
-      <c r="V72" s="62"/>
-      <c r="W72" s="62"/>
-      <c r="X72" s="62"/>
-      <c r="Y72" s="62"/>
-      <c r="Z72" s="63"/>
-      <c r="AA72" s="61"/>
-      <c r="AB72" s="62"/>
-      <c r="AC72" s="62"/>
-      <c r="AD72" s="62"/>
-      <c r="AE72" s="62"/>
-      <c r="AF72" s="62"/>
-      <c r="AG72" s="62"/>
-      <c r="AH72" s="62"/>
-      <c r="AI72" s="62"/>
-      <c r="AJ72" s="62"/>
-      <c r="AK72" s="62"/>
-      <c r="AL72" s="62"/>
-      <c r="AM72" s="62"/>
-      <c r="AN72" s="62"/>
-      <c r="AO72" s="62"/>
-      <c r="AP72" s="62"/>
-      <c r="AQ72" s="62"/>
-      <c r="AR72" s="62"/>
-      <c r="AS72" s="62"/>
-      <c r="AT72" s="62"/>
-      <c r="AU72" s="62"/>
-      <c r="AV72" s="62"/>
-      <c r="AW72" s="63"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="50"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="50"/>
+      <c r="J72" s="50"/>
+      <c r="K72" s="50"/>
+      <c r="L72" s="50"/>
+      <c r="M72" s="50"/>
+      <c r="N72" s="50"/>
+      <c r="O72" s="50"/>
+      <c r="P72" s="50"/>
+      <c r="Q72" s="50"/>
+      <c r="R72" s="50"/>
+      <c r="S72" s="50"/>
+      <c r="T72" s="50"/>
+      <c r="U72" s="50"/>
+      <c r="V72" s="50"/>
+      <c r="W72" s="50"/>
+      <c r="X72" s="50"/>
+      <c r="Y72" s="50"/>
+      <c r="Z72" s="51"/>
+      <c r="AA72" s="49"/>
+      <c r="AB72" s="50"/>
+      <c r="AC72" s="50"/>
+      <c r="AD72" s="50"/>
+      <c r="AE72" s="50"/>
+      <c r="AF72" s="50"/>
+      <c r="AG72" s="50"/>
+      <c r="AH72" s="50"/>
+      <c r="AI72" s="50"/>
+      <c r="AJ72" s="50"/>
+      <c r="AK72" s="50"/>
+      <c r="AL72" s="50"/>
+      <c r="AM72" s="50"/>
+      <c r="AN72" s="50"/>
+      <c r="AO72" s="50"/>
+      <c r="AP72" s="50"/>
+      <c r="AQ72" s="50"/>
+      <c r="AR72" s="50"/>
+      <c r="AS72" s="50"/>
+      <c r="AT72" s="50"/>
+      <c r="AU72" s="50"/>
+      <c r="AV72" s="50"/>
+      <c r="AW72" s="51"/>
     </row>
     <row r="73" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B73" s="61"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="62"/>
-      <c r="H73" s="62"/>
-      <c r="I73" s="62"/>
-      <c r="J73" s="62"/>
-      <c r="K73" s="62"/>
-      <c r="L73" s="62"/>
-      <c r="M73" s="62"/>
-      <c r="N73" s="62"/>
-      <c r="O73" s="62"/>
-      <c r="P73" s="62"/>
-      <c r="Q73" s="62"/>
-      <c r="R73" s="62"/>
-      <c r="S73" s="62"/>
-      <c r="T73" s="62"/>
-      <c r="U73" s="62"/>
-      <c r="V73" s="62"/>
-      <c r="W73" s="62"/>
-      <c r="X73" s="62"/>
-      <c r="Y73" s="62"/>
-      <c r="Z73" s="63"/>
-      <c r="AA73" s="61"/>
-      <c r="AB73" s="62"/>
-      <c r="AC73" s="62"/>
-      <c r="AD73" s="62"/>
-      <c r="AE73" s="62"/>
-      <c r="AF73" s="62"/>
-      <c r="AG73" s="62"/>
-      <c r="AH73" s="62"/>
-      <c r="AI73" s="62"/>
-      <c r="AJ73" s="62"/>
-      <c r="AK73" s="62"/>
-      <c r="AL73" s="62"/>
-      <c r="AM73" s="62"/>
-      <c r="AN73" s="62"/>
-      <c r="AO73" s="62"/>
-      <c r="AP73" s="62"/>
-      <c r="AQ73" s="62"/>
-      <c r="AR73" s="62"/>
-      <c r="AS73" s="62"/>
-      <c r="AT73" s="62"/>
-      <c r="AU73" s="62"/>
-      <c r="AV73" s="62"/>
-      <c r="AW73" s="63"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="50"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="50"/>
+      <c r="K73" s="50"/>
+      <c r="L73" s="50"/>
+      <c r="M73" s="50"/>
+      <c r="N73" s="50"/>
+      <c r="O73" s="50"/>
+      <c r="P73" s="50"/>
+      <c r="Q73" s="50"/>
+      <c r="R73" s="50"/>
+      <c r="S73" s="50"/>
+      <c r="T73" s="50"/>
+      <c r="U73" s="50"/>
+      <c r="V73" s="50"/>
+      <c r="W73" s="50"/>
+      <c r="X73" s="50"/>
+      <c r="Y73" s="50"/>
+      <c r="Z73" s="51"/>
+      <c r="AA73" s="49"/>
+      <c r="AB73" s="50"/>
+      <c r="AC73" s="50"/>
+      <c r="AD73" s="50"/>
+      <c r="AE73" s="50"/>
+      <c r="AF73" s="50"/>
+      <c r="AG73" s="50"/>
+      <c r="AH73" s="50"/>
+      <c r="AI73" s="50"/>
+      <c r="AJ73" s="50"/>
+      <c r="AK73" s="50"/>
+      <c r="AL73" s="50"/>
+      <c r="AM73" s="50"/>
+      <c r="AN73" s="50"/>
+      <c r="AO73" s="50"/>
+      <c r="AP73" s="50"/>
+      <c r="AQ73" s="50"/>
+      <c r="AR73" s="50"/>
+      <c r="AS73" s="50"/>
+      <c r="AT73" s="50"/>
+      <c r="AU73" s="50"/>
+      <c r="AV73" s="50"/>
+      <c r="AW73" s="51"/>
     </row>
     <row r="74" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B74" s="61"/>
-      <c r="C74" s="62"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="62"/>
-      <c r="H74" s="62"/>
-      <c r="I74" s="62"/>
-      <c r="J74" s="62"/>
-      <c r="K74" s="62"/>
-      <c r="L74" s="62"/>
-      <c r="M74" s="62"/>
-      <c r="N74" s="62"/>
-      <c r="O74" s="62"/>
-      <c r="P74" s="62"/>
-      <c r="Q74" s="62"/>
-      <c r="R74" s="62"/>
-      <c r="S74" s="62"/>
-      <c r="T74" s="62"/>
-      <c r="U74" s="62"/>
-      <c r="V74" s="62"/>
-      <c r="W74" s="62"/>
-      <c r="X74" s="62"/>
-      <c r="Y74" s="62"/>
-      <c r="Z74" s="63"/>
-      <c r="AA74" s="61"/>
-      <c r="AB74" s="62"/>
-      <c r="AC74" s="62"/>
-      <c r="AD74" s="62"/>
-      <c r="AE74" s="62"/>
-      <c r="AF74" s="62"/>
-      <c r="AG74" s="62"/>
-      <c r="AH74" s="62"/>
-      <c r="AI74" s="62"/>
-      <c r="AJ74" s="62"/>
-      <c r="AK74" s="62"/>
-      <c r="AL74" s="62"/>
-      <c r="AM74" s="62"/>
-      <c r="AN74" s="62"/>
-      <c r="AO74" s="62"/>
-      <c r="AP74" s="62"/>
-      <c r="AQ74" s="62"/>
-      <c r="AR74" s="62"/>
-      <c r="AS74" s="62"/>
-      <c r="AT74" s="62"/>
-      <c r="AU74" s="62"/>
-      <c r="AV74" s="62"/>
-      <c r="AW74" s="63"/>
+      <c r="B74" s="49"/>
+      <c r="C74" s="50"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="50"/>
+      <c r="I74" s="50"/>
+      <c r="J74" s="50"/>
+      <c r="K74" s="50"/>
+      <c r="L74" s="50"/>
+      <c r="M74" s="50"/>
+      <c r="N74" s="50"/>
+      <c r="O74" s="50"/>
+      <c r="P74" s="50"/>
+      <c r="Q74" s="50"/>
+      <c r="R74" s="50"/>
+      <c r="S74" s="50"/>
+      <c r="T74" s="50"/>
+      <c r="U74" s="50"/>
+      <c r="V74" s="50"/>
+      <c r="W74" s="50"/>
+      <c r="X74" s="50"/>
+      <c r="Y74" s="50"/>
+      <c r="Z74" s="51"/>
+      <c r="AA74" s="49"/>
+      <c r="AB74" s="50"/>
+      <c r="AC74" s="50"/>
+      <c r="AD74" s="50"/>
+      <c r="AE74" s="50"/>
+      <c r="AF74" s="50"/>
+      <c r="AG74" s="50"/>
+      <c r="AH74" s="50"/>
+      <c r="AI74" s="50"/>
+      <c r="AJ74" s="50"/>
+      <c r="AK74" s="50"/>
+      <c r="AL74" s="50"/>
+      <c r="AM74" s="50"/>
+      <c r="AN74" s="50"/>
+      <c r="AO74" s="50"/>
+      <c r="AP74" s="50"/>
+      <c r="AQ74" s="50"/>
+      <c r="AR74" s="50"/>
+      <c r="AS74" s="50"/>
+      <c r="AT74" s="50"/>
+      <c r="AU74" s="50"/>
+      <c r="AV74" s="50"/>
+      <c r="AW74" s="51"/>
     </row>
     <row r="75" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B75" s="61"/>
-      <c r="C75" s="62"/>
-      <c r="D75" s="62"/>
-      <c r="E75" s="62"/>
-      <c r="F75" s="62"/>
-      <c r="G75" s="62"/>
-      <c r="H75" s="62"/>
-      <c r="I75" s="62"/>
-      <c r="J75" s="62"/>
-      <c r="K75" s="62"/>
-      <c r="L75" s="62"/>
-      <c r="M75" s="62"/>
-      <c r="N75" s="62"/>
-      <c r="O75" s="62"/>
-      <c r="P75" s="62"/>
-      <c r="Q75" s="62"/>
-      <c r="R75" s="62"/>
-      <c r="S75" s="62"/>
-      <c r="T75" s="62"/>
-      <c r="U75" s="62"/>
-      <c r="V75" s="62"/>
-      <c r="W75" s="62"/>
-      <c r="X75" s="62"/>
-      <c r="Y75" s="62"/>
-      <c r="Z75" s="63"/>
-      <c r="AA75" s="61"/>
-      <c r="AB75" s="62"/>
-      <c r="AC75" s="62"/>
-      <c r="AD75" s="62"/>
-      <c r="AE75" s="62"/>
-      <c r="AF75" s="62"/>
-      <c r="AG75" s="62"/>
-      <c r="AH75" s="62"/>
-      <c r="AI75" s="62"/>
-      <c r="AJ75" s="62"/>
-      <c r="AK75" s="62"/>
-      <c r="AL75" s="62"/>
-      <c r="AM75" s="62"/>
-      <c r="AN75" s="62"/>
-      <c r="AO75" s="62"/>
-      <c r="AP75" s="62"/>
-      <c r="AQ75" s="62"/>
-      <c r="AR75" s="62"/>
-      <c r="AS75" s="62"/>
-      <c r="AT75" s="62"/>
-      <c r="AU75" s="62"/>
-      <c r="AV75" s="62"/>
-      <c r="AW75" s="63"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="50"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="50"/>
+      <c r="K75" s="50"/>
+      <c r="L75" s="50"/>
+      <c r="M75" s="50"/>
+      <c r="N75" s="50"/>
+      <c r="O75" s="50"/>
+      <c r="P75" s="50"/>
+      <c r="Q75" s="50"/>
+      <c r="R75" s="50"/>
+      <c r="S75" s="50"/>
+      <c r="T75" s="50"/>
+      <c r="U75" s="50"/>
+      <c r="V75" s="50"/>
+      <c r="W75" s="50"/>
+      <c r="X75" s="50"/>
+      <c r="Y75" s="50"/>
+      <c r="Z75" s="51"/>
+      <c r="AA75" s="49"/>
+      <c r="AB75" s="50"/>
+      <c r="AC75" s="50"/>
+      <c r="AD75" s="50"/>
+      <c r="AE75" s="50"/>
+      <c r="AF75" s="50"/>
+      <c r="AG75" s="50"/>
+      <c r="AH75" s="50"/>
+      <c r="AI75" s="50"/>
+      <c r="AJ75" s="50"/>
+      <c r="AK75" s="50"/>
+      <c r="AL75" s="50"/>
+      <c r="AM75" s="50"/>
+      <c r="AN75" s="50"/>
+      <c r="AO75" s="50"/>
+      <c r="AP75" s="50"/>
+      <c r="AQ75" s="50"/>
+      <c r="AR75" s="50"/>
+      <c r="AS75" s="50"/>
+      <c r="AT75" s="50"/>
+      <c r="AU75" s="50"/>
+      <c r="AV75" s="50"/>
+      <c r="AW75" s="51"/>
     </row>
     <row r="76" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B76" s="61"/>
-      <c r="C76" s="62"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="62"/>
-      <c r="F76" s="62"/>
-      <c r="G76" s="62"/>
-      <c r="H76" s="62"/>
-      <c r="I76" s="62"/>
-      <c r="J76" s="62"/>
-      <c r="K76" s="62"/>
-      <c r="L76" s="62"/>
-      <c r="M76" s="62"/>
-      <c r="N76" s="62"/>
-      <c r="O76" s="62"/>
-      <c r="P76" s="62"/>
-      <c r="Q76" s="62"/>
-      <c r="R76" s="62"/>
-      <c r="S76" s="62"/>
-      <c r="T76" s="62"/>
-      <c r="U76" s="62"/>
-      <c r="V76" s="62"/>
-      <c r="W76" s="62"/>
-      <c r="X76" s="62"/>
-      <c r="Y76" s="62"/>
-      <c r="Z76" s="63"/>
-      <c r="AA76" s="61"/>
-      <c r="AB76" s="62"/>
-      <c r="AC76" s="62"/>
-      <c r="AD76" s="62"/>
-      <c r="AE76" s="62"/>
-      <c r="AF76" s="62"/>
-      <c r="AG76" s="62"/>
-      <c r="AH76" s="62"/>
-      <c r="AI76" s="62"/>
-      <c r="AJ76" s="62"/>
-      <c r="AK76" s="62"/>
-      <c r="AL76" s="62"/>
-      <c r="AM76" s="62"/>
-      <c r="AN76" s="62"/>
-      <c r="AO76" s="62"/>
-      <c r="AP76" s="62"/>
-      <c r="AQ76" s="62"/>
-      <c r="AR76" s="62"/>
-      <c r="AS76" s="62"/>
-      <c r="AT76" s="62"/>
-      <c r="AU76" s="62"/>
-      <c r="AV76" s="62"/>
-      <c r="AW76" s="63"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="50"/>
+      <c r="K76" s="50"/>
+      <c r="L76" s="50"/>
+      <c r="M76" s="50"/>
+      <c r="N76" s="50"/>
+      <c r="O76" s="50"/>
+      <c r="P76" s="50"/>
+      <c r="Q76" s="50"/>
+      <c r="R76" s="50"/>
+      <c r="S76" s="50"/>
+      <c r="T76" s="50"/>
+      <c r="U76" s="50"/>
+      <c r="V76" s="50"/>
+      <c r="W76" s="50"/>
+      <c r="X76" s="50"/>
+      <c r="Y76" s="50"/>
+      <c r="Z76" s="51"/>
+      <c r="AA76" s="49"/>
+      <c r="AB76" s="50"/>
+      <c r="AC76" s="50"/>
+      <c r="AD76" s="50"/>
+      <c r="AE76" s="50"/>
+      <c r="AF76" s="50"/>
+      <c r="AG76" s="50"/>
+      <c r="AH76" s="50"/>
+      <c r="AI76" s="50"/>
+      <c r="AJ76" s="50"/>
+      <c r="AK76" s="50"/>
+      <c r="AL76" s="50"/>
+      <c r="AM76" s="50"/>
+      <c r="AN76" s="50"/>
+      <c r="AO76" s="50"/>
+      <c r="AP76" s="50"/>
+      <c r="AQ76" s="50"/>
+      <c r="AR76" s="50"/>
+      <c r="AS76" s="50"/>
+      <c r="AT76" s="50"/>
+      <c r="AU76" s="50"/>
+      <c r="AV76" s="50"/>
+      <c r="AW76" s="51"/>
     </row>
     <row r="77" spans="2:49" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="64"/>
-      <c r="C77" s="65"/>
-      <c r="D77" s="65"/>
-      <c r="E77" s="65"/>
-      <c r="F77" s="65"/>
-      <c r="G77" s="65"/>
-      <c r="H77" s="65"/>
-      <c r="I77" s="65"/>
-      <c r="J77" s="65"/>
-      <c r="K77" s="65"/>
-      <c r="L77" s="65"/>
-      <c r="M77" s="65"/>
-      <c r="N77" s="65"/>
-      <c r="O77" s="65"/>
-      <c r="P77" s="65"/>
-      <c r="Q77" s="65"/>
-      <c r="R77" s="65"/>
-      <c r="S77" s="65"/>
-      <c r="T77" s="65"/>
-      <c r="U77" s="65"/>
-      <c r="V77" s="65"/>
-      <c r="W77" s="65"/>
-      <c r="X77" s="65"/>
-      <c r="Y77" s="65"/>
-      <c r="Z77" s="66"/>
-      <c r="AA77" s="64"/>
-      <c r="AB77" s="65"/>
-      <c r="AC77" s="65"/>
-      <c r="AD77" s="65"/>
-      <c r="AE77" s="65"/>
-      <c r="AF77" s="65"/>
-      <c r="AG77" s="65"/>
-      <c r="AH77" s="65"/>
-      <c r="AI77" s="65"/>
-      <c r="AJ77" s="65"/>
-      <c r="AK77" s="65"/>
-      <c r="AL77" s="65"/>
-      <c r="AM77" s="65"/>
-      <c r="AN77" s="65"/>
-      <c r="AO77" s="65"/>
-      <c r="AP77" s="65"/>
-      <c r="AQ77" s="65"/>
-      <c r="AR77" s="65"/>
-      <c r="AS77" s="65"/>
-      <c r="AT77" s="65"/>
-      <c r="AU77" s="65"/>
-      <c r="AV77" s="65"/>
-      <c r="AW77" s="66"/>
+      <c r="B77" s="52"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="53"/>
+      <c r="G77" s="53"/>
+      <c r="H77" s="53"/>
+      <c r="I77" s="53"/>
+      <c r="J77" s="53"/>
+      <c r="K77" s="53"/>
+      <c r="L77" s="53"/>
+      <c r="M77" s="53"/>
+      <c r="N77" s="53"/>
+      <c r="O77" s="53"/>
+      <c r="P77" s="53"/>
+      <c r="Q77" s="53"/>
+      <c r="R77" s="53"/>
+      <c r="S77" s="53"/>
+      <c r="T77" s="53"/>
+      <c r="U77" s="53"/>
+      <c r="V77" s="53"/>
+      <c r="W77" s="53"/>
+      <c r="X77" s="53"/>
+      <c r="Y77" s="53"/>
+      <c r="Z77" s="54"/>
+      <c r="AA77" s="52"/>
+      <c r="AB77" s="53"/>
+      <c r="AC77" s="53"/>
+      <c r="AD77" s="53"/>
+      <c r="AE77" s="53"/>
+      <c r="AF77" s="53"/>
+      <c r="AG77" s="53"/>
+      <c r="AH77" s="53"/>
+      <c r="AI77" s="53"/>
+      <c r="AJ77" s="53"/>
+      <c r="AK77" s="53"/>
+      <c r="AL77" s="53"/>
+      <c r="AM77" s="53"/>
+      <c r="AN77" s="53"/>
+      <c r="AO77" s="53"/>
+      <c r="AP77" s="53"/>
+      <c r="AQ77" s="53"/>
+      <c r="AR77" s="53"/>
+      <c r="AS77" s="53"/>
+      <c r="AT77" s="53"/>
+      <c r="AU77" s="53"/>
+      <c r="AV77" s="53"/>
+      <c r="AW77" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3932,10 +4074,10 @@
   </sheetPr>
   <dimension ref="A1:Y1005"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E22" sqref="E22"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3978,12 +4120,12 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -4116,7 +4258,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
@@ -4161,13 +4303,13 @@
       <c r="U8" s="5"/>
     </row>
     <row r="9" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -4288,7 +4430,7 @@
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="81">
+      <c r="E14" s="69">
         <v>0</v>
       </c>
       <c r="F14" s="5"/>
@@ -4315,8 +4457,8 @@
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="81" t="s">
-        <v>17</v>
+      <c r="E15" s="69">
+        <v>0</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -4337,12 +4479,12 @@
     </row>
     <row r="16" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="81">
+      <c r="E16" s="69">
         <v>0</v>
       </c>
       <c r="F16" s="6"/>
@@ -4364,12 +4506,12 @@
     </row>
     <row r="17" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="81">
+      <c r="E17" s="69">
         <v>0</v>
       </c>
       <c r="F17" s="5"/>
@@ -4391,13 +4533,13 @@
     </row>
     <row r="18" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="17"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="81" t="s">
-        <v>17</v>
+      <c r="E18" s="69">
+        <v>0</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -4418,13 +4560,13 @@
     </row>
     <row r="19" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="17"/>
       <c r="D19" s="18"/>
-      <c r="E19" s="81" t="s">
-        <v>17</v>
+      <c r="E19" s="69">
+        <v>0</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -4445,13 +4587,13 @@
     </row>
     <row r="20" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="17"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="81" t="s">
-        <v>17</v>
+      <c r="E20" s="69">
+        <v>0</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -4472,12 +4614,12 @@
     </row>
     <row r="21" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
-      <c r="E21" s="81">
+      <c r="E21" s="69">
         <v>0</v>
       </c>
       <c r="F21" s="5"/>
@@ -4499,12 +4641,12 @@
     </row>
     <row r="22" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
       <c r="D22" s="18"/>
-      <c r="E22" s="81">
+      <c r="E22" s="69">
         <v>0</v>
       </c>
       <c r="F22" s="5"/>
@@ -4525,13 +4667,15 @@
       <c r="U22" s="5"/>
     </row>
     <row r="23" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="77" t="s">
-        <v>24</v>
+      <c r="A23" s="65" t="s">
+        <v>23</v>
       </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="81"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="69">
+        <v>0</v>
+      </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -4551,13 +4695,13 @@
     </row>
     <row r="24" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="17"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="81" t="s">
-        <v>17</v>
+      <c r="E24" s="69">
+        <v>0</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -4578,12 +4722,12 @@
     </row>
     <row r="25" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="18"/>
-      <c r="E25" s="47">
+      <c r="E25" s="37">
         <f>SUM(E14:E24)</f>
         <v>0</v>
       </c>
@@ -4629,14 +4773,12 @@
     </row>
     <row r="27" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="10">
-        <v>0</v>
-      </c>
+      <c r="E27" s="10"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -4679,12 +4821,12 @@
     </row>
     <row r="29" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="48">
+      <c r="E29" s="38">
         <f>E25+E27</f>
         <v>0</v>
       </c>
@@ -4729,13 +4871,13 @@
       <c r="U30" s="5"/>
     </row>
     <row r="31" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="79" t="s">
-        <v>29</v>
+      <c r="A31" s="67" t="s">
+        <v>28</v>
       </c>
-      <c r="B31" s="78"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -4760,7 +4902,7 @@
         <v>13</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E32" s="21"/>
       <c r="F32" s="5"/>
@@ -4782,7 +4924,7 @@
     </row>
     <row r="33" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="23">
@@ -4813,7 +4955,7 @@
     </row>
     <row r="34" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="23">
@@ -4870,7 +5012,7 @@
     </row>
     <row r="36" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="17"/>
@@ -4921,7 +5063,7 @@
     </row>
     <row r="38" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
@@ -4949,7 +5091,7 @@
     </row>
     <row r="39" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
@@ -5000,7 +5142,7 @@
     </row>
     <row r="41" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
@@ -5025,7 +5167,7 @@
     </row>
     <row r="42" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
@@ -5075,12 +5217,12 @@
     </row>
     <row r="44" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
       <c r="D44" s="9"/>
-      <c r="E44" s="45">
+      <c r="E44" s="36">
         <f>SUM(E40:E42)</f>
         <v>-400</v>
       </c>
@@ -27219,230 +27361,384 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="B2:E22"/>
+  <dimension ref="B2:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="8.88671875" style="70" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" style="70" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="70" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="70" customWidth="1"/>
+    <col min="5" max="5" width="12" style="70" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="70" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="70" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="70" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="70" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" style="70" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="70" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="70"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="35" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="str">
+    </row>
+    <row r="3" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="70" t="str">
         <f>'Tax Comp'!A14</f>
         <v>Gross salary, wages or leave pay</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="72">
         <f>'Tax Comp'!E14</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="str">
+    <row r="4" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="70" t="str">
         <f>'Tax Comp'!A15</f>
         <v>Bonuses / Director fees</v>
       </c>
-      <c r="C4" s="38" t="str">
+      <c r="C4" s="72">
         <f>'Tax Comp'!E15</f>
-        <v>-</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="str">
+    <row r="5" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="70" t="str">
         <f>'Tax Comp'!A16</f>
         <v>Gross tips, perquisites or other allowances</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="72">
         <f>'Tax Comp'!E16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="str">
+    <row r="6" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="70" t="str">
         <f>'Tax Comp'!A17</f>
         <v>Tax allowance (YA 2024)</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="72">
         <f>'Tax Comp'!E17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="str">
+    <row r="7" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="70" t="str">
         <f>'Tax Comp'!A18</f>
         <v>Equity income</v>
       </c>
-      <c r="C7" s="38" t="str">
+      <c r="C7" s="72">
         <f>'Tax Comp'!E18</f>
-        <v>-</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="str">
+    <row r="8" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="70" t="str">
         <f>'Tax Comp'!A19</f>
         <v>Gratuity</v>
       </c>
-      <c r="C8" s="38" t="str">
+      <c r="C8" s="72">
         <f>'Tax Comp'!E19</f>
-        <v>-</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="str">
+    <row r="9" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="70" t="str">
         <f>'Tax Comp'!A20</f>
         <v>Payment in arrears</v>
       </c>
-      <c r="C9" s="38" t="str">
+      <c r="C9" s="72">
         <f>'Tax Comp'!E20</f>
-        <v>-</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="str">
+    <row r="10" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="70" t="str">
         <f>'Tax Comp'!A21</f>
         <v>Benefits-in-kind</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="72">
         <f>'Tax Comp'!E21</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="str">
+    <row r="11" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="70" t="str">
         <f>'Tax Comp'!A22</f>
         <v>Value of living accommodation</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="72">
         <f>'Tax Comp'!E22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="str">
+    <row r="12" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="70" t="str">
         <f>'Tax Comp'!A23</f>
         <v>Refund from unapproved Pension or Provident Fund</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="72">
         <f>'Tax Comp'!E23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="str">
+    <row r="13" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="70" t="str">
         <f>'Tax Comp'!A24</f>
         <v xml:space="preserve">Compensation for loss of employment </v>
       </c>
-      <c r="C13" s="38" t="str">
+      <c r="C13" s="72">
         <f>'Tax Comp'!E24</f>
-        <v>-</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="43">
+    <row r="14" spans="2:6" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="82">
         <f>SUM(C3:C13)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="36" t="s">
+    <row r="15" spans="2:6" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="D16" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="86" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="79"/>
+      <c r="D17" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="86">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="79"/>
+      <c r="D18" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="86">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="79"/>
+      <c r="D19" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="86">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="79"/>
+      <c r="D20" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="86">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="79"/>
+      <c r="D21" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="86">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="79"/>
+      <c r="D22" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="86">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="79"/>
+      <c r="D23" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="86">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="79"/>
+      <c r="D24" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="86">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B25" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="79"/>
+      <c r="D25" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="86">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="79"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="78"/>
+      <c r="C27" s="79"/>
+    </row>
+    <row r="28" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="78"/>
+      <c r="C28" s="80">
+        <f>SUM(C17:C17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="C30" s="71" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="39" t="s">
+      <c r="D30" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="40">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="39"/>
-      <c r="C18" s="42">
-        <f>SUM(C17:C17)</f>
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="35" t="s">
+      <c r="E30" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="57" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C21" s="41"/>
-      <c r="D21" s="49">
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="74"/>
+      <c r="D31" s="75">
         <f>'Tax Comp'!E36</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="38">
+    <row r="32" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="72">
         <f>'Tax Comp'!E42</f>
         <v>0</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E32" s="72">
         <f>'Tax Comp'!E44</f>
         <v>-400</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:C14" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="134"/>
-        <filter val="14,112"/>
-        <filter val="165,749"/>
-        <filter val="19,439"/>
-        <filter val="518,811"/>
-        <filter val="718,245.29"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B2:C14" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a348be1c-5511-4288-88ac-aeef929a1e35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e637f2b2-c84b-4ba0-b67a-df9a03be6d34" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002AC577462BAD4C4A97B15BF8CA4DF19E" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="be2e2063e8b737458e409d449ae19813">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a348be1c-5511-4288-88ac-aeef929a1e35" xmlns:ns3="e637f2b2-c84b-4ba0-b67a-df9a03be6d34" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="55f4501f7d89f91c133d65fbd691676c" ns2:_="" ns3:_="">
     <xsd:import namespace="a348be1c-5511-4288-88ac-aeef929a1e35"/>
@@ -27655,27 +27951,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8315232-B8F4-4685-BAD5-9DD7B186EA64}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a348be1c-5511-4288-88ac-aeef929a1e35"/>
+    <ds:schemaRef ds:uri="e637f2b2-c84b-4ba0-b67a-df9a03be6d34"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a348be1c-5511-4288-88ac-aeef929a1e35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e637f2b2-c84b-4ba0-b67a-df9a03be6d34" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3534F2E1-578C-4B58-A957-EBD19C9F0B50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61093414-3BA2-4E6A-8FDE-DB82B9A6DCFB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27692,23 +27987,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3534F2E1-578C-4B58-A957-EBD19C9F0B50}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8315232-B8F4-4685-BAD5-9DD7B186EA64}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a348be1c-5511-4288-88ac-aeef929a1e35"/>
-    <ds:schemaRef ds:uri="e637f2b2-c84b-4ba0-b67a-df9a03be6d34"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>